--- a/SSM_Perception_scratch.xlsx
+++ b/SSM_Perception_scratch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthiksubramanian/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d3engineering-my.sharepoint.com/personal/oadamides_d3embedded_com/Documents/Documents/PhD/2023-2024/SSM_Survey_Paper/survey_SSM_robotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251DD702-31C3-49BC-8D3C-EF6164C69172}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
+    <workbookView xWindow="40215" yWindow="-5625" windowWidth="29265" windowHeight="17490" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataProcessing" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="436">
   <si>
     <t>Publication Year</t>
   </si>
@@ -93,15 +93,6 @@
     <t>ISO; Specification</t>
   </si>
   <si>
-    <t>Mak, Adit</t>
-  </si>
-  <si>
-    <t>HandBook Guidance on the programming of ABB YuMi IRB 14000</t>
-  </si>
-  <si>
-    <t>Robot user guide</t>
-  </si>
-  <si>
     <t>Chitta, Sachin; Marder-Eppstein, Eitan; Meeussen, Wim; Pradeep, Vijay; Tsouroukdissian, Adolfo Rodríguez; Bohren, Jonathan; Coleman, David; Magyar, Bence; Raiola, Gennaro; Lüdtke, Mathias; Perdomo, Enrique Fernandez</t>
   </si>
   <si>
@@ -1164,15 +1155,6 @@
     <t>LiDAR; sensor fusion; RADAR; 3DTOF; MONOVISION; EMBEDDEDLIN; FPGA</t>
   </si>
   <si>
-    <t>machine learning; MONOVISION; PC; SSM; STEREOVISION</t>
-  </si>
-  <si>
-    <t>MOCAP; PC_ASSUME</t>
-  </si>
-  <si>
-    <t>PC; STEREOVISION</t>
-  </si>
-  <si>
     <t>Collaboration; Monitoring; Safety; Cameras; cellular manufacturing; human-robot collaboration; Humans; safety; stereo vision; Stereo vision; Tracking</t>
   </si>
   <si>
@@ -1236,19 +1218,127 @@
     <t>Speed and separation monitoring; Human-robot collaboration; Unstructured manufacturing; Interference theory</t>
   </si>
   <si>
-    <t>Accuracy; Binocular Vision; Collaboration; Human-Robot Collaboration; Manipulators; Real-time systems; Robot kinematics; Robot vision systems; Safety Zone; Service robots; Speed and Separation Monitoring</t>
-  </si>
-  <si>
-    <t>deep learning; diffusion models; Discrete cosine transforms; Human motion prediction (HMP); human-robot collaboration (HRC); Noise; Noise reduction; Predictive models; Robots; Training; Transformers</t>
-  </si>
-  <si>
-    <t>Collaboration; Delays; Planning; Production; Sequential analysis; Spatiotemporal phenomena; Trajectory</t>
-  </si>
-  <si>
     <t>all embedded linux</t>
   </si>
   <si>
     <t>EMBEDDED LINUX</t>
+  </si>
+  <si>
+    <t>machine learning; MONOVISION; STEREOVISION; PC; SSM</t>
+  </si>
+  <si>
+    <t>Collaboration; Robot vision systems; Service robots; Speed and Separation Monitoring; Manipulators; Real-time systems; Robot kinematics; Human-Robot Collaboration; Accuracy; Binocular Vision; Safety Zone</t>
+  </si>
+  <si>
+    <t>PC_ASSUME; MOCAP</t>
+  </si>
+  <si>
+    <t>Robots; Training; human-robot collaboration (HRC); deep learning; diffusion models; Discrete cosine transforms; Human motion prediction (HMP); Noise; Noise reduction; Predictive models; Transformers</t>
+  </si>
+  <si>
+    <t>Esposito, Marco; O'Flaherty, Rowland; Li, Yihui; Virga, Salvo; Joshi, Ravi; Haschke, Robert</t>
+  </si>
+  <si>
+    <t>IFL-CAMP/easy_handeye</t>
+  </si>
+  <si>
+    <t>robot; camera; calibration; hand-eye; hand-eye-calibration; ros</t>
+  </si>
+  <si>
+    <t>STEREOVISION; PC</t>
+  </si>
+  <si>
+    <t>Collaboration; Trajectory; Production; Delays; Planning; Sequential analysis; Spatiotemporal phenomena</t>
+  </si>
+  <si>
+    <t>Subramanian, Karthik; Singh, Saurav; Namba, Justin; Heard, Jamison; Kanan, Christopher; Sahin, Ferat</t>
+  </si>
+  <si>
+    <t>Spatial and Temporal Attention-Based Emotion Estimation on HRI-AVC Dataset</t>
+  </si>
+  <si>
+    <t>Collaboration; Real-time systems; Estimation; Human-robot interaction; Affective Computing; Annotations; Anxiety disorders; Computer Vision; Human-Robot Interaction (HRI); Psychology</t>
+  </si>
+  <si>
+    <t>Namba, Justin R.; Subramanian, Karthik; Savur, Celal; Sahin, Ferat</t>
+  </si>
+  <si>
+    <t>Database for Human Emotion Estimation Through Physiological Data in Industrial Human-Robot Collaboration</t>
+  </si>
+  <si>
+    <t>Service robots; Estimation; human-robot collaboration; Feature extraction; Task analysis; Data mining; human-robot interaction; Databases; Physiology</t>
+  </si>
+  <si>
+    <t>Freedrive</t>
+  </si>
+  <si>
+    <t>Rosenstrauch, Martin J.; Pannen, Tessa J.; Krüger, Jörg</t>
+  </si>
+  <si>
+    <t>Human robot collaboration - using kinect v2 for ISO/TS 15066 speed and separation monitoring</t>
+  </si>
+  <si>
+    <t>human robot collaboration; ISO/TS 15066; kinect v2; safety</t>
+  </si>
+  <si>
+    <t>Marvel, Jeremy A.; Norcross, Rick</t>
+  </si>
+  <si>
+    <t>Implementing speed and separation monitoring in collaborative robot workcells</t>
+  </si>
+  <si>
+    <t>Robot safety; Speed and separation monitoring</t>
+  </si>
+  <si>
+    <t>Parigi Polverini, Matteo; Zanchettin, Andrea Maria; Rocco, Paolo</t>
+  </si>
+  <si>
+    <t>A computationally efficient safety assessment for collaborative robotics applications</t>
+  </si>
+  <si>
+    <t>3DTOF; kinect; PC</t>
+  </si>
+  <si>
+    <t>Kinetostatic safety field; Motion control; Physical human–robot interaction; Redundant robots; Safety assessment</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>Marvel, Jeremy A.; Roger, Bostelman</t>
+  </si>
+  <si>
+    <t>Test Methods for the Evaluation of Manufacturing Mobile Manipulator Safety</t>
+  </si>
+  <si>
+    <t>Agile manufacturing; AGV safety; Computers–Robotics; Fault tolerance; Functional safety; LiDAR; Manipulator; Manipulators; Manufacturing; Mobile manipulator; mobile manipulators; PC; Robot arms; robot safety; Safety</t>
+  </si>
+  <si>
+    <t>Zanchettin, Andrea Maria; Ceriani, Nicola Maria; Rocco, Paolo; Ding, Hao; Matthias, Björn</t>
+  </si>
+  <si>
+    <t>Safety in human-robot collaborative manufacturing environments: Metrics and control</t>
+  </si>
+  <si>
+    <t>Collaboration; Collision avoidance; Human-robot collaboration; industrial robots; Joints; motion planning; Safety; safety standards; Service robots; Trajectory</t>
+  </si>
+  <si>
+    <t>UR10e Medium-sized, versatile cobot</t>
+  </si>
+  <si>
+    <t>ABB Library - 3HAC052983-001</t>
+  </si>
+  <si>
+    <t>Inciteful</t>
+  </si>
+  <si>
+    <t>Using Citations to Explore Academic Literature | Inciteful.xyz</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>mmWave radar sensors | TI.com</t>
   </si>
 </sst>
 </file>
@@ -2281,13 +2371,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4</c:v>
@@ -2503,10 +2593,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -3414,7 +3504,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -4065,13 +4155,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>9</c:v>
@@ -4086,7 +4176,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -6421,13 +6511,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4</c:v>
@@ -6643,10 +6733,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -7554,7 +7644,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -8548,13 +8638,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>9</c:v>
@@ -8569,7 +8659,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -10682,10 +10772,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -11817,7 +11907,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
@@ -12018,13 +12108,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8</c:v>
@@ -12801,13 +12891,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4</c:v>
@@ -13023,10 +13113,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -13934,7 +14024,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -15934,13 +16024,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10</c:v>
@@ -15955,7 +16045,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
@@ -16856,7 +16946,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -23659,168 +23749,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825518CA-F60F-4DC4-87D6-FEDC2F6AE5B4}">
-  <dimension ref="A1:BA99"/>
+  <dimension ref="A1:BA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AR57" sqref="AR57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
+    <col min="1" max="4" width="9.140625"/>
+    <col min="5" max="6" width="73" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="2" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2">
-        <v>2015</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>2024</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" t="s">
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>338</v>
+      </c>
+      <c r="E2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
       </c>
       <c r="G2">
         <f>IF(AND(
@@ -23862,14 +23951,14 @@
   OR(ISNUMBER(FIND($L$1 &amp; ";", E2 &amp; ";")), ISNUMBER(FIND($L$1 &amp; " ", E2 &amp; " "))),
   AND(ISERROR(FIND($L$1 &amp; "_EX;", E2 &amp; ";")), ISERROR(FIND($L$1 &amp; "_EX ", E2 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <f>IF(AND(
   OR(ISNUMBER(FIND($M$1 &amp; ";", E2 &amp; ";")), ISNUMBER(FIND($M$1 &amp; " ", E2 &amp; " "))),
   AND(ISERROR(FIND($M$1 &amp; "_EX;", E2 &amp; ";")), ISERROR(FIND($M$1 &amp; "_EX ", E2 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <f>IF(AND(
@@ -23890,7 +23979,7 @@
   OR(ISNUMBER(FIND($P$1 &amp; ";", E2 &amp; ";")), ISNUMBER(FIND($P$1 &amp; " ", E2 &amp; " "))),
   AND(ISERROR(FIND($P$1 &amp; "_EX;", E2 &amp; ";")), ISERROR(FIND($P$1 &amp; "_EX ", E2 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2" si="0">IF(AND(
@@ -23943,7 +24032,7 @@
       </c>
       <c r="Y2">
         <f>SUM(G2:G80)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z2">
         <f t="shared" ref="Z2:AO2" si="1">SUM(H2:H80)</f>
@@ -23951,7 +24040,7 @@
       </c>
       <c r="AA2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB2">
         <f t="shared" si="1"/>
@@ -23959,27 +24048,27 @@
       </c>
       <c r="AC2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH2">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AI2">
         <f t="shared" si="1"/>
@@ -23987,15 +24076,15 @@
       </c>
       <c r="AJ2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AM2">
         <f t="shared" si="1"/>
@@ -24010,28 +24099,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>339</v>
+      </c>
+      <c r="E3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" t="s">
+        <v>400</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">IF(AND(
   OR(ISNUMBER(FIND($G$1 &amp; ";", E3 &amp; ";")), ISNUMBER(FIND($G$1 &amp; " ", E3 &amp; " "))),
   AND(ISERROR(FIND($G$1 &amp; "_EX;", E3 &amp; ";")), ISERROR(FIND($G$1 &amp; "_EX ", E3 &amp; " ")))
 ), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="3">IF(AND(
@@ -24087,14 +24179,14 @@
   OR(ISNUMBER(FIND($O$1 &amp; ";", E3 &amp; ";")), ISNUMBER(FIND($O$1 &amp; " ", E3 &amp; " "))),
   AND(ISERROR(FIND($O$1 &amp; "_EX;", E3 &amp; ";")), ISERROR(FIND($O$1 &amp; "_EX ", E3 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P66" si="11">IF(AND(
   OR(ISNUMBER(FIND($P$1 &amp; ";", E3 &amp; ";")), ISNUMBER(FIND($P$1 &amp; " ", E3 &amp; " "))),
   AND(ISERROR(FIND($P$1 &amp; "_EX;", E3 &amp; ";")), ISERROR(FIND($P$1 &amp; "_EX ", E3 &amp; " ")))
 ), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="12">IF(AND(
@@ -24108,7 +24200,7 @@
   OR(ISNUMBER(FIND($R$1 &amp; ";", E3 &amp; ";")), ISNUMBER(FIND($R$1 &amp; " ", E3 &amp; " "))),
   AND(ISERROR(FIND($R$1 &amp; "_EX;", E3 &amp; ";")), ISERROR(FIND($R$1 &amp; "_EX ", E3 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="14">IF(AND(
@@ -24122,7 +24214,7 @@
   OR(ISNUMBER(FIND($T$1 &amp; ";", E3 &amp; ";")), ISNUMBER(FIND($T$1 &amp; " ", E3 &amp; " "))),
   AND(ISERROR(FIND($T$1 &amp; "_EX;", E3 &amp; ";")), ISERROR(FIND($T$1 &amp; "_EX ", E3 &amp; " ")))
 ), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="16">IF(AND(
@@ -24146,87 +24238,87 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="AT3" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>2024</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45578</v>
+      </c>
+      <c r="C4" t="s">
+        <v>401</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>402</v>
+      </c>
+      <c r="F4" t="s">
+        <v>403</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
@@ -24234,7 +24326,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
@@ -24250,7 +24342,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f t="shared" si="8"/>
@@ -24274,7 +24366,7 @@
       </c>
       <c r="R4">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <f t="shared" si="14"/>
@@ -24384,15 +24476,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="16" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>17</v>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -24550,21 +24648,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B6">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>2023</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -24722,21 +24820,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -24894,21 +24992,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>2023</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -25066,15 +25164,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="16" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" t="s">
+        <v>199</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -25102,7 +25209,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="9"/>
@@ -25114,7 +25221,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="12"/>
@@ -25232,21 +25339,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2021</v>
-      </c>
-      <c r="B10">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>2023</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>228</v>
+      </c>
+      <c r="E10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" t="s">
+        <v>231</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -25270,7 +25380,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
@@ -25282,7 +25392,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="11"/>
@@ -25298,11 +25408,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="16"/>
@@ -25404,15 +25514,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="16" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
-        <v>36</v>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>241</v>
+      </c>
+      <c r="E11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" t="s">
+        <v>380</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -25570,25 +25689,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2019</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>2023</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44927</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" t="s">
+        <v>381</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
@@ -25624,7 +25746,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f t="shared" si="12"/>
@@ -25640,7 +25762,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <f t="shared" si="16"/>
@@ -25742,21 +25864,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2011</v>
-      </c>
-      <c r="B13">
-        <v>2011</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>2023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>324</v>
+      </c>
+      <c r="F13" t="s">
+        <v>382</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -25914,21 +26036,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2016</v>
-      </c>
-      <c r="B14">
-        <v>2016</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>2023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>325</v>
+      </c>
+      <c r="E14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" t="s">
+        <v>383</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -25980,7 +26105,7 @@
       </c>
       <c r="S14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <f t="shared" si="15"/>
@@ -26086,21 +26211,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2008</v>
-      </c>
-      <c r="B15">
-        <v>2008</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>2023</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45022</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>326</v>
+      </c>
+      <c r="E15" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" t="s">
+        <v>384</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -26108,11 +26236,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
@@ -26128,7 +26256,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="9"/>
@@ -26258,21 +26386,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>2023</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>327</v>
+      </c>
+      <c r="E16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" t="s">
+        <v>385</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -26312,7 +26443,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <f t="shared" si="12"/>
@@ -26430,21 +26561,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2019</v>
-      </c>
-      <c r="B17">
-        <v>2019</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>2023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>328</v>
+      </c>
+      <c r="E17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" t="s">
+        <v>386</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -26484,7 +26618,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <f t="shared" si="12"/>
@@ -26602,21 +26736,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:53" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>298</v>
+      </c>
+      <c r="C18" t="s">
+        <v>309</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>329</v>
+      </c>
+      <c r="E18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" t="s">
+        <v>387</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -26624,11 +26761,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
@@ -26648,7 +26785,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <f t="shared" si="10"/>
@@ -26656,7 +26793,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <f t="shared" si="12"/>
@@ -26668,7 +26805,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <f t="shared" si="15"/>
@@ -26676,11 +26813,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <f t="shared" si="18"/>
@@ -26774,19 +26911,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:53" ht="16" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>61</v>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19" t="s">
+        <v>310</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>330</v>
+      </c>
+      <c r="E19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" t="s">
+        <v>388</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
@@ -26838,7 +26984,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <f t="shared" si="16"/>
@@ -26940,21 +27086,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:53" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>303</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" t="s">
+        <v>405</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -26962,7 +27111,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
@@ -26982,7 +27131,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" si="9"/>
@@ -26994,7 +27143,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <f t="shared" si="12"/>
@@ -27002,7 +27151,7 @@
       </c>
       <c r="R20">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <f t="shared" si="14"/>
@@ -27112,21 +27261,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>2023</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="E21" t="s">
+        <v>404</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -27150,7 +27299,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <f t="shared" si="8"/>
@@ -27166,7 +27315,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <f t="shared" si="12"/>
@@ -27284,21 +27433,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:53" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>406</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
+        <v>408</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -27456,21 +27605,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:53" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>409</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>410</v>
+      </c>
+      <c r="F23" t="s">
+        <v>411</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -27478,7 +27627,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
@@ -27510,7 +27659,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <f t="shared" si="12"/>
@@ -27628,20 +27777,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:53" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>2022</v>
+      </c>
+      <c r="B24">
+        <v>2022</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
         <v>347</v>
       </c>
       <c r="G24">
@@ -27650,7 +27799,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
@@ -27682,7 +27831,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <f t="shared" si="12"/>
@@ -27694,7 +27843,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f t="shared" si="15"/>
@@ -27706,7 +27855,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <f t="shared" si="18"/>
@@ -27718,11 +27867,11 @@
       </c>
       <c r="Z24">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <f t="shared" si="22"/>
@@ -27750,7 +27899,7 @@
       </c>
       <c r="AH24">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI24">
         <f t="shared" si="29"/>
@@ -27789,41 +27938,38 @@
       </c>
       <c r="AR24">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AY24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AZ24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="BA24" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:53" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B25">
-        <v>2021</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>2022</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -27847,7 +27993,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f t="shared" si="8"/>
@@ -27859,11 +28005,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <f t="shared" si="12"/>
@@ -27899,11 +28045,11 @@
       </c>
       <c r="Z25">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <f t="shared" si="22"/>
@@ -27931,7 +28077,7 @@
       </c>
       <c r="AH25">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI25">
         <f t="shared" si="29"/>
@@ -27970,32 +28116,32 @@
       </c>
       <c r="AR25">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:53" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B26">
-        <v>2021</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>2022</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>348</v>
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -28003,11 +28149,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
@@ -28027,7 +28173,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <f t="shared" si="10"/>
@@ -28071,7 +28217,7 @@
       </c>
       <c r="Z26">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA26">
         <f t="shared" si="21"/>
@@ -28103,7 +28249,7 @@
       </c>
       <c r="AH26">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI26">
         <f t="shared" si="29"/>
@@ -28142,32 +28288,35 @@
       </c>
       <c r="AR26">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT26">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:53" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>211</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>349</v>
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" t="s">
+        <v>376</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -28175,7 +28324,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
@@ -28203,11 +28352,11 @@
       </c>
       <c r="O27">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <f t="shared" si="12"/>
@@ -28215,7 +28364,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <f t="shared" si="14"/>
@@ -28325,21 +28474,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:53" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2020</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>2022</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44835</v>
+      </c>
+      <c r="C28" t="s">
+        <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>92</v>
+        <v>214</v>
+      </c>
+      <c r="E28" t="s">
+        <v>215</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
@@ -28347,7 +28496,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
@@ -28363,11 +28512,11 @@
       </c>
       <c r="L28">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="9"/>
@@ -28497,25 +28646,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>235</v>
+      </c>
+      <c r="E29" t="s">
+        <v>356</v>
+      </c>
+      <c r="F29" t="s">
+        <v>378</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
@@ -28551,7 +28703,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <f t="shared" si="12"/>
@@ -28567,7 +28719,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <f t="shared" si="16"/>
@@ -28669,21 +28821,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B30">
-        <v>2019</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>2022</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>331</v>
+      </c>
+      <c r="E30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" t="s">
+        <v>389</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
@@ -28715,7 +28870,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <f t="shared" si="10"/>
@@ -28723,7 +28878,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <f t="shared" si="12"/>
@@ -28841,25 +28996,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:53" ht="64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>299</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>332</v>
+      </c>
+      <c r="E31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" t="s">
+        <v>390</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
@@ -28911,7 +29069,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
         <f t="shared" si="16"/>
@@ -28951,7 +29109,7 @@
       </c>
       <c r="AE31">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF31">
         <f t="shared" si="26"/>
@@ -28963,7 +29121,7 @@
       </c>
       <c r="AH31">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI31">
         <f t="shared" si="29"/>
@@ -28998,7 +29156,7 @@
       </c>
       <c r="AQ31">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR31">
         <f t="shared" si="37"/>
@@ -29006,28 +29164,31 @@
       </c>
       <c r="AS31">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT31">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:53" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>333</v>
+      </c>
+      <c r="E32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F32" t="s">
+        <v>391</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
@@ -29047,7 +29208,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <f t="shared" si="7"/>
@@ -29055,7 +29216,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="9"/>
@@ -29067,7 +29228,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <f t="shared" si="12"/>
@@ -29185,21 +29346,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="B33">
-        <v>2013</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>2021</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
@@ -29211,7 +29372,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
@@ -29227,7 +29388,7 @@
       </c>
       <c r="M33">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <f t="shared" si="9"/>
@@ -29235,11 +29396,11 @@
       </c>
       <c r="O33">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <f t="shared" si="12"/>
@@ -29270,21 +29431,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B34">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>2021</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>350</v>
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
@@ -29292,7 +29453,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
@@ -29324,7 +29485,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <f t="shared" si="12"/>
@@ -29336,7 +29497,7 @@
       </c>
       <c r="S34">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <f t="shared" si="15"/>
@@ -29348,28 +29509,28 @@
       </c>
       <c r="V34">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
@@ -29377,11 +29538,11 @@
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
@@ -29401,7 +29562,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <f t="shared" si="10"/>
@@ -29421,7 +29582,7 @@
       </c>
       <c r="S35">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <f t="shared" si="15"/>
@@ -29429,32 +29590,32 @@
       </c>
       <c r="U35">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36">
-        <v>2021</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>114</v>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>344</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
@@ -29474,15 +29635,15 @@
       </c>
       <c r="K36">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <f t="shared" si="9"/>
@@ -29494,7 +29655,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <f t="shared" si="12"/>
@@ -29525,21 +29686,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2018</v>
-      </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>2021</v>
+      </c>
+      <c r="B37">
+        <v>2021</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>351</v>
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -29563,7 +29724,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <f t="shared" si="8"/>
@@ -29571,15 +29732,15 @@
       </c>
       <c r="N37">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <f t="shared" si="12"/>
@@ -29591,7 +29752,7 @@
       </c>
       <c r="S37">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <f t="shared" si="15"/>
@@ -29607,24 +29768,24 @@
       </c>
       <c r="W37">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2019</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>2021</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>352</v>
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>345</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
@@ -29652,11 +29813,11 @@
       </c>
       <c r="M38">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <f t="shared" si="10"/>
@@ -29664,7 +29825,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <f t="shared" si="12"/>
@@ -29672,7 +29833,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <f t="shared" si="14"/>
@@ -29695,21 +29856,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>353</v>
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>346</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
@@ -29729,7 +29890,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <f t="shared" si="7"/>
@@ -29737,7 +29898,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <f t="shared" si="9"/>
@@ -29745,7 +29906,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <f t="shared" si="11"/>
@@ -29780,21 +29941,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2016</v>
-      </c>
-      <c r="B40">
-        <v>2016</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>125</v>
+        <v>2021</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
@@ -29865,21 +30026,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="B41">
-        <v>2014</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>2021</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
@@ -29899,15 +30060,15 @@
       </c>
       <c r="K41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <f t="shared" si="9"/>
@@ -29919,7 +30080,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <f t="shared" si="12"/>
@@ -29950,21 +30111,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2019</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>131</v>
+        <v>2021</v>
+      </c>
+      <c r="B42">
+        <v>2021</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
@@ -29972,11 +30133,11 @@
       </c>
       <c r="H42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <f t="shared" si="5"/>
@@ -29988,11 +30149,11 @@
       </c>
       <c r="L42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <f t="shared" si="9"/>
@@ -30004,7 +30165,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <f t="shared" si="12"/>
@@ -30035,18 +30196,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B43">
-        <v>2022</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>135</v>
+        <v>2021</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
+        <v>172</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
@@ -30117,21 +30281,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2023</v>
-      </c>
-      <c r="B44">
-        <v>2023</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>137</v>
+        <v>2021</v>
+      </c>
+      <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>139</v>
+        <v>201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" t="s">
+        <v>204</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
@@ -30143,7 +30310,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <f t="shared" si="5"/>
@@ -30159,7 +30326,7 @@
       </c>
       <c r="M44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <f t="shared" si="9"/>
@@ -30171,7 +30338,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <f t="shared" si="12"/>
@@ -30202,21 +30369,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2023</v>
-      </c>
-      <c r="B45">
-        <v>2023</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>2021</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>142</v>
+        <v>217</v>
+      </c>
+      <c r="E45" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" t="s">
+        <v>219</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
@@ -30236,7 +30406,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <f t="shared" si="7"/>
@@ -30264,7 +30434,7 @@
       </c>
       <c r="R45">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <f t="shared" si="14"/>
@@ -30287,12 +30457,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" t="s">
+        <v>220</v>
+      </c>
       <c r="D46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>142</v>
+        <v>221</v>
+      </c>
+      <c r="E46" t="s">
+        <v>355</v>
+      </c>
+      <c r="F46" t="s">
+        <v>377</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
@@ -30363,21 +30545,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2012</v>
-      </c>
-      <c r="B47">
-        <v>2012</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>144</v>
+        <v>2021</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>146</v>
+        <v>334</v>
+      </c>
+      <c r="E47" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
@@ -30389,7 +30574,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <f t="shared" si="5"/>
@@ -30409,7 +30594,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <f t="shared" si="10"/>
@@ -30417,7 +30602,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <f t="shared" si="12"/>
@@ -30448,25 +30633,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>149</v>
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" si="3"/>
@@ -30502,7 +30687,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <f t="shared" si="12"/>
@@ -30518,7 +30703,7 @@
       </c>
       <c r="T48">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <f t="shared" si="16"/>
@@ -30533,21 +30718,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2020</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>150</v>
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>153</v>
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
@@ -30555,11 +30740,11 @@
       </c>
       <c r="H49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <f t="shared" si="5"/>
@@ -30618,21 +30803,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2020</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>154</v>
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>157</v>
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
@@ -30640,7 +30825,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
@@ -30672,7 +30857,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <f t="shared" si="12"/>
@@ -30703,25 +30888,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2020</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>150</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <f t="shared" si="3"/>
@@ -30729,7 +30914,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <f t="shared" si="5"/>
@@ -30741,7 +30926,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <f t="shared" si="8"/>
@@ -30788,29 +30973,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>354</v>
+        <v>152</v>
+      </c>
+      <c r="E52" t="s">
+        <v>154</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
@@ -30858,7 +31043,7 @@
       </c>
       <c r="T52">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <f t="shared" si="16"/>
@@ -30873,29 +31058,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>355</v>
+        <v>156</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <f t="shared" si="4"/>
@@ -30958,21 +31143,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B54">
-        <v>2022</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>167</v>
+        <v>2020</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
@@ -30980,11 +31162,11 @@
       </c>
       <c r="H54">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <f t="shared" si="5"/>
@@ -31020,7 +31202,7 @@
       </c>
       <c r="R54">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <f t="shared" si="14"/>
@@ -31043,33 +31225,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B55">
-        <v>2021</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>170</v>
+        <v>2020</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>172</v>
+        <v>335</v>
+      </c>
+      <c r="E55" t="s">
+        <v>371</v>
+      </c>
+      <c r="F55" t="s">
+        <v>393</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <f t="shared" si="5"/>
@@ -31081,11 +31266,11 @@
       </c>
       <c r="L55">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <f t="shared" si="9"/>
@@ -31097,7 +31282,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <f t="shared" si="12"/>
@@ -31113,7 +31298,7 @@
       </c>
       <c r="T55">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <f t="shared" si="16"/>
@@ -31128,21 +31313,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2021</v>
-      </c>
-      <c r="B56">
-        <v>2021</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>173</v>
+        <v>2020</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C56" t="s">
+        <v>315</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>175</v>
+        <v>336</v>
+      </c>
+      <c r="E56" t="s">
+        <v>372</v>
+      </c>
+      <c r="F56" t="s">
+        <v>394</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
@@ -31178,11 +31366,11 @@
       </c>
       <c r="O56">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <f t="shared" si="12"/>
@@ -31213,25 +31401,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2023</v>
-      </c>
-      <c r="B57">
-        <v>2023</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>176</v>
+        <v>2019</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <f t="shared" si="3"/>
@@ -31267,7 +31455,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <f t="shared" si="12"/>
@@ -31283,7 +31471,7 @@
       </c>
       <c r="T57">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <f t="shared" si="16"/>
@@ -31298,21 +31486,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2023</v>
-      </c>
-      <c r="B58">
-        <v>2023</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>179</v>
+        <v>2019</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>181</v>
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
@@ -31320,7 +31508,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -31336,7 +31524,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <f t="shared" si="8"/>
@@ -31360,7 +31548,7 @@
       </c>
       <c r="R58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <f t="shared" si="14"/>
@@ -31383,16 +31571,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
       <c r="D59" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>146</v>
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>39</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
@@ -31428,7 +31625,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <f t="shared" si="12"/>
@@ -31444,7 +31641,7 @@
       </c>
       <c r="T59">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <f t="shared" si="16"/>
@@ -31459,12 +31656,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60">
+        <v>2019</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
       <c r="D60" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>184</v>
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
@@ -31535,12 +31741,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
       <c r="D61" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>186</v>
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>343</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
@@ -31564,11 +31779,11 @@
       </c>
       <c r="L61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <f t="shared" si="9"/>
@@ -31611,21 +31826,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2010</v>
-      </c>
-      <c r="B62">
-        <v>2010</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>187</v>
+        <v>2019</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>189</v>
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
@@ -31633,7 +31848,7 @@
       </c>
       <c r="H62">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
@@ -31665,7 +31880,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <f t="shared" si="12"/>
@@ -31696,24 +31911,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2011</v>
-      </c>
-      <c r="B63" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>190</v>
+        <v>2019</v>
+      </c>
+      <c r="B63">
+        <v>2019</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>380</v>
+        <v>95</v>
+      </c>
+      <c r="E63" t="s">
+        <v>96</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
@@ -31741,7 +31953,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <f t="shared" si="9"/>
@@ -31753,7 +31965,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <f t="shared" si="12"/>
@@ -31784,21 +31996,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1996</v>
-      </c>
-      <c r="B64">
-        <v>1996</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>193</v>
+        <v>2019</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>195</v>
+        <v>118</v>
+      </c>
+      <c r="E64" t="s">
+        <v>349</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
@@ -31838,7 +32050,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <f t="shared" si="12"/>
@@ -31846,7 +32058,7 @@
       </c>
       <c r="R64">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64">
         <f t="shared" si="14"/>
@@ -31869,24 +32081,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>196</v>
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>381</v>
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>350</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
@@ -31894,7 +32103,7 @@
       </c>
       <c r="H65">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
@@ -31906,7 +32115,7 @@
       </c>
       <c r="K65">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <f t="shared" si="7"/>
@@ -31957,24 +32166,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2023</v>
-      </c>
-      <c r="B66">
-        <v>2023</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>199</v>
+        <v>2019</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>202</v>
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
@@ -32002,7 +32208,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <f t="shared" si="9"/>
@@ -32014,7 +32220,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <f t="shared" si="12"/>
@@ -32045,31 +32251,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>207</v>
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G80" si="40">IF(AND(
   OR(ISNUMBER(FIND($G$1 &amp; ";", E67 &amp; ";")), ISNUMBER(FIND($G$1 &amp; " ", E67 &amp; " "))),
   AND(ISERROR(FIND($G$1 &amp; "_EX;", E67 &amp; ";")), ISERROR(FIND($G$1 &amp; "_EX ", E67 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H80" si="41">IF(AND(
@@ -32083,7 +32286,7 @@
   OR(ISNUMBER(FIND($I$1 &amp; ";", E67 &amp; ";")), ISNUMBER(FIND($I$1 &amp; " ", E67 &amp; " "))),
   AND(ISERROR(FIND($I$1 &amp; "_EX;", E67 &amp; ";")), ISERROR(FIND($I$1 &amp; "_EX ", E67 &amp; " ")))
 ), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J80" si="43">IF(AND(
@@ -32111,7 +32314,7 @@
   OR(ISNUMBER(FIND($M$1 &amp; ";", E67 &amp; ";")), ISNUMBER(FIND($M$1 &amp; " ", E67 &amp; " "))),
   AND(ISERROR(FIND($M$1 &amp; "_EX;", E67 &amp; ";")), ISERROR(FIND($M$1 &amp; "_EX ", E67 &amp; " ")))
 ), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N80" si="47">IF(AND(
@@ -32160,7 +32363,7 @@
   OR(ISNUMBER(FIND($T$1 &amp; ";", E67 &amp; ";")), ISNUMBER(FIND($T$1 &amp; " ", E67 &amp; " "))),
   AND(ISERROR(FIND($T$1 &amp; "_EX;", E67 &amp; ";")), ISERROR(FIND($T$1 &amp; "_EX ", E67 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U80" si="54">IF(AND(
@@ -32184,28 +32387,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2019</v>
       </c>
-      <c r="B68" s="1">
-        <v>43678</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>208</v>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>211</v>
+        <v>160</v>
+      </c>
+      <c r="E68" t="s">
+        <v>351</v>
       </c>
       <c r="G68">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <f t="shared" si="41"/>
@@ -32213,7 +32413,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <f t="shared" si="43"/>
@@ -32257,7 +32457,7 @@
       </c>
       <c r="T68">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68">
         <f t="shared" si="54"/>
@@ -32272,24 +32472,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>212</v>
+        <v>163</v>
+      </c>
+      <c r="C69" t="s">
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>382</v>
+        <v>162</v>
+      </c>
+      <c r="E69" t="s">
+        <v>352</v>
       </c>
       <c r="G69">
         <f t="shared" si="40"/>
@@ -32329,7 +32526,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <f t="shared" si="50"/>
@@ -32337,7 +32534,7 @@
       </c>
       <c r="R69">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <f t="shared" si="52"/>
@@ -32360,21 +32557,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B70" s="1">
-        <v>44835</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>216</v>
+        <v>43678</v>
+      </c>
+      <c r="C70" t="s">
+        <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
+      </c>
+      <c r="E70" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" t="s">
+        <v>208</v>
       </c>
       <c r="G70">
         <f t="shared" si="40"/>
@@ -32386,7 +32586,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <f t="shared" si="43"/>
@@ -32402,7 +32602,7 @@
       </c>
       <c r="M70">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <f t="shared" si="47"/>
@@ -32445,24 +32645,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>219</v>
+        <v>300</v>
+      </c>
+      <c r="C71" t="s">
+        <v>316</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>222</v>
+        <v>337</v>
+      </c>
+      <c r="E71" t="s">
+        <v>373</v>
       </c>
       <c r="G71">
         <f t="shared" si="40"/>
@@ -32470,11 +32667,11 @@
       </c>
       <c r="H71">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <f t="shared" si="43"/>
@@ -32482,11 +32679,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <f t="shared" si="46"/>
@@ -32494,7 +32691,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <f t="shared" si="48"/>
@@ -32510,11 +32707,11 @@
       </c>
       <c r="R71">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71">
         <f t="shared" si="53"/>
@@ -32533,24 +32730,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2021</v>
-      </c>
-      <c r="B72" t="s">
-        <v>225</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>223</v>
+        <v>2019</v>
+      </c>
+      <c r="B72">
+        <v>2019</v>
       </c>
       <c r="D72" t="s">
-        <v>224</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="G72">
         <f t="shared" si="40"/>
@@ -32621,28 +32809,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2015</v>
-      </c>
-      <c r="B73" s="1">
-        <v>42186</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>226</v>
+        <v>2018</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>229</v>
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
       </c>
       <c r="G73">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <f t="shared" si="41"/>
@@ -32678,7 +32863,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <f t="shared" si="50"/>
@@ -32694,7 +32879,7 @@
       </c>
       <c r="T73">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <f t="shared" si="54"/>
@@ -32709,24 +32894,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
+        <v>63</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>234</v>
+        <v>62</v>
+      </c>
+      <c r="E74" t="s">
+        <v>342</v>
       </c>
       <c r="G74">
         <f t="shared" si="40"/>
@@ -32734,7 +32916,7 @@
       </c>
       <c r="H74">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <f t="shared" si="42"/>
@@ -32750,7 +32932,7 @@
       </c>
       <c r="L74">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <f t="shared" si="46"/>
@@ -32762,7 +32944,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <f t="shared" si="49"/>
@@ -32774,15 +32956,15 @@
       </c>
       <c r="R74">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74">
         <f t="shared" si="54"/>
@@ -32797,21 +32979,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>235</v>
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>215</v>
+        <v>115</v>
+      </c>
+      <c r="E75" t="s">
+        <v>348</v>
       </c>
       <c r="G75">
         <f t="shared" si="40"/>
@@ -32819,7 +33001,7 @@
       </c>
       <c r="H75">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <f t="shared" si="42"/>
@@ -32843,7 +33025,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
         <f t="shared" si="48"/>
@@ -32859,11 +33041,11 @@
       </c>
       <c r="R75">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75">
         <f t="shared" si="53"/>
@@ -32879,35 +33061,35 @@
       </c>
       <c r="W75">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2022</v>
-      </c>
-      <c r="B76" t="s">
-        <v>239</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>2018</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>413</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>384</v>
+        <v>414</v>
+      </c>
+      <c r="E76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s">
+        <v>415</v>
       </c>
       <c r="G76">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <f t="shared" si="42"/>
@@ -32955,7 +33137,7 @@
       </c>
       <c r="T76">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76">
         <f t="shared" si="54"/>
@@ -32970,24 +33152,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>385</v>
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
       </c>
       <c r="G77">
         <f t="shared" si="40"/>
@@ -33027,7 +33206,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <f t="shared" si="50"/>
@@ -33058,24 +33237,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2023</v>
-      </c>
-      <c r="B78" t="s">
-        <v>232</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>243</v>
+        <v>2017</v>
+      </c>
+      <c r="B78" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C78" t="s">
+        <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>386</v>
+        <v>417</v>
+      </c>
+      <c r="E78" t="s">
+        <v>207</v>
+      </c>
+      <c r="F78" t="s">
+        <v>418</v>
       </c>
       <c r="G78">
         <f t="shared" si="40"/>
@@ -33087,7 +33266,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <f t="shared" si="43"/>
@@ -33115,7 +33294,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
         <f t="shared" si="50"/>
@@ -33146,24 +33325,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="B79" s="1">
-        <v>44927</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>307</v>
+        <v>42948</v>
+      </c>
+      <c r="C79" t="s">
+        <v>419</v>
       </c>
       <c r="D79" t="s">
-        <v>324</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>387</v>
+        <v>420</v>
+      </c>
+      <c r="E79" t="s">
+        <v>421</v>
+      </c>
+      <c r="F79" t="s">
+        <v>422</v>
       </c>
       <c r="G79">
         <f t="shared" si="40"/>
@@ -33171,7 +33350,7 @@
       </c>
       <c r="H79">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <f t="shared" si="42"/>
@@ -33203,7 +33382,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
         <f t="shared" si="50"/>
@@ -33234,12 +33413,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2016</v>
+      </c>
+      <c r="B80">
+        <v>2016</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
       <c r="D80" t="s">
-        <v>325</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>363</v>
+        <v>43</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
       </c>
       <c r="G80">
         <f t="shared" si="40"/>
@@ -33310,18 +33498,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B81">
-        <v>2020</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>134</v>
+        <v>2016</v>
+      </c>
+      <c r="C81" t="s">
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>326</v>
+        <v>123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>124</v>
       </c>
       <c r="G81">
         <f t="shared" ref="G81:G98" si="57">IF(AND(
@@ -33443,21 +33634,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="B82" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>308</v>
+        <v>423</v>
+      </c>
+      <c r="C82" t="s">
+        <v>424</v>
       </c>
       <c r="D82" t="s">
-        <v>327</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>388</v>
+        <v>425</v>
+      </c>
+      <c r="E82" t="s">
+        <v>426</v>
       </c>
       <c r="G82">
         <f t="shared" si="57"/>
@@ -33469,7 +33660,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <f t="shared" si="60"/>
@@ -33497,7 +33688,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <f t="shared" si="67"/>
@@ -33528,24 +33719,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="B83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>309</v>
+        <v>423</v>
+      </c>
+      <c r="C83" t="s">
+        <v>427</v>
       </c>
       <c r="D83" t="s">
-        <v>328</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>389</v>
+        <v>428</v>
+      </c>
+      <c r="E83" t="s">
+        <v>421</v>
+      </c>
+      <c r="F83" t="s">
+        <v>429</v>
       </c>
       <c r="G83">
         <f t="shared" si="57"/>
@@ -33553,7 +33744,7 @@
       </c>
       <c r="H83">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <f t="shared" si="59"/>
@@ -33585,7 +33776,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <f t="shared" si="67"/>
@@ -33597,7 +33788,7 @@
       </c>
       <c r="S83">
         <f t="shared" si="69"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <f t="shared" si="70"/>
@@ -33616,24 +33807,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2023</v>
-      </c>
-      <c r="B84" s="1">
-        <v>45022</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>310</v>
+        <v>2015</v>
+      </c>
+      <c r="B84">
+        <v>2015</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>329</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>390</v>
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
       </c>
       <c r="G84">
         <f t="shared" si="57"/>
@@ -33645,7 +33833,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <f t="shared" si="60"/>
@@ -33661,7 +33849,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <f t="shared" si="64"/>
@@ -33673,7 +33861,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
         <f t="shared" si="67"/>
@@ -33704,28 +33892,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2023</v>
-      </c>
-      <c r="B85">
-        <v>2023</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>2015</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42186</v>
+      </c>
+      <c r="C85" t="s">
+        <v>223</v>
       </c>
       <c r="D85" t="s">
-        <v>330</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>391</v>
+        <v>224</v>
+      </c>
+      <c r="E85" t="s">
+        <v>225</v>
+      </c>
+      <c r="F85" t="s">
+        <v>226</v>
       </c>
       <c r="G85">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <f t="shared" si="58"/>
@@ -33777,7 +33965,7 @@
       </c>
       <c r="T85">
         <f t="shared" si="70"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85">
         <f t="shared" si="71"/>
@@ -33792,24 +33980,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="B86" t="s">
-        <v>301</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>311</v>
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>331</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>392</v>
+        <v>91</v>
+      </c>
+      <c r="E86" t="s">
+        <v>93</v>
       </c>
       <c r="G86">
         <f t="shared" si="57"/>
@@ -33849,7 +34034,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <f t="shared" si="67"/>
@@ -33880,24 +34065,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>312</v>
+        <v>110</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>332</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>393</v>
+        <v>109</v>
+      </c>
+      <c r="E87" t="s">
+        <v>70</v>
       </c>
       <c r="G87">
         <f t="shared" si="57"/>
@@ -33937,7 +34119,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <f t="shared" si="67"/>
@@ -33968,28 +34150,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="B88">
-        <v>2023</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>313</v>
+        <v>2014</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>333</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>394</v>
+        <v>126</v>
+      </c>
+      <c r="E88" t="s">
+        <v>127</v>
       </c>
       <c r="G88">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <f t="shared" si="58"/>
@@ -34041,7 +34220,7 @@
       </c>
       <c r="T88">
         <f t="shared" si="70"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88">
         <f t="shared" si="71"/>
@@ -34056,24 +34235,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2022</v>
-      </c>
-      <c r="B89">
-        <v>2022</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>314</v>
+        <v>2014</v>
+      </c>
+      <c r="B89" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" t="s">
+        <v>232</v>
       </c>
       <c r="D89" t="s">
-        <v>334</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>395</v>
+        <v>233</v>
+      </c>
+      <c r="E89" t="s">
+        <v>212</v>
       </c>
       <c r="G89">
         <f t="shared" si="57"/>
@@ -34081,7 +34257,7 @@
       </c>
       <c r="H89">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <f t="shared" si="59"/>
@@ -34105,7 +34281,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <f t="shared" si="65"/>
@@ -34113,7 +34289,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <f t="shared" si="67"/>
@@ -34121,7 +34297,7 @@
       </c>
       <c r="R89">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <f t="shared" si="69"/>
@@ -34144,28 +34320,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>315</v>
+        <v>239</v>
+      </c>
+      <c r="C90" t="s">
+        <v>237</v>
       </c>
       <c r="D90" t="s">
-        <v>335</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>396</v>
+        <v>238</v>
+      </c>
+      <c r="E90" t="s">
+        <v>357</v>
+      </c>
+      <c r="F90" t="s">
+        <v>379</v>
       </c>
       <c r="G90">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <f t="shared" si="58"/>
@@ -34201,7 +34377,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <f t="shared" si="67"/>
@@ -34217,7 +34393,7 @@
       </c>
       <c r="T90">
         <f t="shared" si="70"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90">
         <f t="shared" si="71"/>
@@ -34232,24 +34408,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2022</v>
-      </c>
-      <c r="B91" t="s">
-        <v>214</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>316</v>
+        <v>2013</v>
+      </c>
+      <c r="B91">
+        <v>2013</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>336</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>397</v>
+        <v>105</v>
+      </c>
+      <c r="E91" t="s">
+        <v>106</v>
       </c>
       <c r="G91">
         <f t="shared" si="57"/>
@@ -34261,7 +34434,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <f t="shared" si="60"/>
@@ -34269,7 +34442,7 @@
       </c>
       <c r="K91">
         <f t="shared" si="61"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <f t="shared" si="62"/>
@@ -34285,7 +34458,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <f t="shared" si="66"/>
@@ -34320,24 +34493,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2021</v>
-      </c>
-      <c r="B92" s="1">
-        <v>44228</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>317</v>
+        <v>2012</v>
+      </c>
+      <c r="B92">
+        <v>2012</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>337</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>398</v>
+        <v>142</v>
+      </c>
+      <c r="E92" t="s">
+        <v>143</v>
       </c>
       <c r="G92">
         <f t="shared" si="57"/>
@@ -34349,7 +34519,7 @@
       </c>
       <c r="I92">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <f t="shared" si="60"/>
@@ -34369,7 +34539,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <f t="shared" si="65"/>
@@ -34377,7 +34547,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <f t="shared" si="67"/>
@@ -34408,32 +34578,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2020</v>
-      </c>
-      <c r="B93">
-        <v>2020</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>2012</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
       </c>
       <c r="D93" t="s">
-        <v>338</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>399</v>
+        <v>194</v>
+      </c>
+      <c r="E93" t="s">
+        <v>354</v>
+      </c>
+      <c r="F93" t="s">
+        <v>375</v>
       </c>
       <c r="G93">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <f t="shared" si="59"/>
@@ -34453,7 +34623,7 @@
       </c>
       <c r="M93">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <f t="shared" si="64"/>
@@ -34465,7 +34635,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
         <f t="shared" si="67"/>
@@ -34481,7 +34651,7 @@
       </c>
       <c r="T93">
         <f t="shared" si="70"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U93">
         <f t="shared" si="71"/>
@@ -34496,24 +34666,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2020</v>
-      </c>
-      <c r="B94" s="1">
-        <v>43862</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>318</v>
+        <v>2011</v>
+      </c>
+      <c r="B94">
+        <v>2011</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>339</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>400</v>
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>42</v>
       </c>
       <c r="G94">
         <f t="shared" si="57"/>
@@ -34549,11 +34716,11 @@
       </c>
       <c r="O94">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
         <f t="shared" si="67"/>
@@ -34584,21 +34751,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>319</v>
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>376</v>
+        <v>188</v>
+      </c>
+      <c r="E95" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" t="s">
+        <v>374</v>
       </c>
       <c r="G95">
         <f t="shared" si="57"/>
@@ -34606,11 +34776,11 @@
       </c>
       <c r="H95">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <f t="shared" si="60"/>
@@ -34622,15 +34792,15 @@
       </c>
       <c r="L95">
         <f t="shared" si="62"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <f t="shared" si="65"/>
@@ -34638,7 +34808,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
         <f t="shared" si="67"/>
@@ -34650,7 +34820,7 @@
       </c>
       <c r="S95">
         <f t="shared" si="69"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95">
         <f t="shared" si="70"/>
@@ -34669,24 +34839,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2024</v>
-      </c>
-      <c r="B96" t="s">
-        <v>304</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>320</v>
+        <v>2010</v>
+      </c>
+      <c r="B96">
+        <v>2010</v>
+      </c>
+      <c r="C96" t="s">
+        <v>184</v>
       </c>
       <c r="D96" t="s">
-        <v>341</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>401</v>
+        <v>185</v>
+      </c>
+      <c r="E96" t="s">
+        <v>186</v>
       </c>
       <c r="G96">
         <f t="shared" si="57"/>
@@ -34710,11 +34877,11 @@
       </c>
       <c r="L96">
         <f t="shared" si="62"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <f t="shared" si="64"/>
@@ -34726,7 +34893,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
         <f t="shared" si="67"/>
@@ -34757,24 +34924,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2024</v>
-      </c>
-      <c r="B97" t="s">
-        <v>305</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>321</v>
+        <v>2008</v>
+      </c>
+      <c r="B97">
+        <v>2008</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
       </c>
       <c r="D97" t="s">
-        <v>342</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>402</v>
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>46</v>
       </c>
       <c r="G97">
         <f t="shared" si="57"/>
@@ -34782,7 +34946,7 @@
       </c>
       <c r="H97">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <f t="shared" si="59"/>
@@ -34810,11 +34974,11 @@
       </c>
       <c r="O97">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
         <f t="shared" si="67"/>
@@ -34822,7 +34986,7 @@
       </c>
       <c r="R97">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97">
         <f t="shared" si="69"/>
@@ -34845,24 +35009,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2023</v>
-      </c>
-      <c r="B98" t="s">
-        <v>306</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>322</v>
+        <v>1996</v>
+      </c>
+      <c r="B98">
+        <v>1996</v>
+      </c>
+      <c r="C98" t="s">
+        <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>343</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>403</v>
+        <v>191</v>
+      </c>
+      <c r="E98" t="s">
+        <v>192</v>
       </c>
       <c r="G98">
         <f t="shared" si="57"/>
@@ -34902,7 +35063,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
         <f t="shared" si="67"/>
@@ -34910,7 +35071,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S98">
         <f t="shared" si="69"/>
@@ -34933,21 +35094,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>2023</v>
-      </c>
-      <c r="B99" s="1">
-        <v>45216</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>323</v>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>344</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>379</v>
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>180</v>
+      </c>
+      <c r="E105" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>322</v>
+      </c>
+      <c r="E107" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>432</v>
+      </c>
+      <c r="D110" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/SSM_Perception_scratch.xlsx
+++ b/SSM_Perception_scratch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d3engineering-my.sharepoint.com/personal/oadamides_d3embedded_com/Documents/Documents/PhD/2023-2024/SSM_Survey_Paper/survey_SSM_robotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251DD702-31C3-49BC-8D3C-EF6164C69172}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{137BD6CA-E2E4-4239-8279-89B669381B23}"/>
   <bookViews>
-    <workbookView xWindow="40215" yWindow="-5625" windowWidth="29265" windowHeight="17490" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
+    <workbookView xWindow="38280" yWindow="-10950" windowWidth="57840" windowHeight="32040" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataProcessing" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="445">
   <si>
     <t>Publication Year</t>
   </si>
@@ -1128,9 +1128,6 @@
     <t>digital twin; PC; RADAR_EX; 3DTOF_EX; simulation; real world validation; sensor characterization</t>
   </si>
   <si>
-    <t>multisensor; PC; RADAR_EX; Calibration Example; MATLAB</t>
-  </si>
-  <si>
     <t>multisensor; 1DTOF; BAREMETAL</t>
   </si>
   <si>
@@ -1194,9 +1191,6 @@
     <t>Robot vision systems; Cameras; Navigation; Sensor fusion; Computational modeling; Sensor phenomena and characterization; Radar antennas</t>
   </si>
   <si>
-    <t>Robot sensing systems; Three-dimensional displays; Hardware; Data collection; Radar antennas; Performance evaluation; Uncertainty</t>
-  </si>
-  <si>
     <t>ToF sensor; collaborative robots; proximity skin sensor; string-like sensor</t>
   </si>
   <si>
@@ -1278,9 +1272,6 @@
     <t>Human robot collaboration - using kinect v2 for ISO/TS 15066 speed and separation monitoring</t>
   </si>
   <si>
-    <t>human robot collaboration; ISO/TS 15066; kinect v2; safety</t>
-  </si>
-  <si>
     <t>Marvel, Jeremy A.; Norcross, Rick</t>
   </si>
   <si>
@@ -1296,9 +1287,6 @@
     <t>A computationally efficient safety assessment for collaborative robotics applications</t>
   </si>
   <si>
-    <t>3DTOF; kinect; PC</t>
-  </si>
-  <si>
     <t>Kinetostatic safety field; Motion control; Physical human–robot interaction; Redundant robots; Safety assessment</t>
   </si>
   <si>
@@ -1311,18 +1299,12 @@
     <t>Test Methods for the Evaluation of Manufacturing Mobile Manipulator Safety</t>
   </si>
   <si>
-    <t>Agile manufacturing; AGV safety; Computers–Robotics; Fault tolerance; Functional safety; LiDAR; Manipulator; Manipulators; Manufacturing; Mobile manipulator; mobile manipulators; PC; Robot arms; robot safety; Safety</t>
-  </si>
-  <si>
     <t>Zanchettin, Andrea Maria; Ceriani, Nicola Maria; Rocco, Paolo; Ding, Hao; Matthias, Björn</t>
   </si>
   <si>
     <t>Safety in human-robot collaborative manufacturing environments: Metrics and control</t>
   </si>
   <si>
-    <t>Collaboration; Collision avoidance; Human-robot collaboration; industrial robots; Joints; motion planning; Safety; safety standards; Service robots; Trajectory</t>
-  </si>
-  <si>
     <t>UR10e Medium-sized, versatile cobot</t>
   </si>
   <si>
@@ -1339,6 +1321,51 @@
   </si>
   <si>
     <t>mmWave radar sensors | TI.com</t>
+  </si>
+  <si>
+    <t>Subramanian, Karthik</t>
+  </si>
+  <si>
+    <t>survey_SSM_robotics</t>
+  </si>
+  <si>
+    <t>Calibration Example; MATLAB; multisensor; PC; RADAR</t>
+  </si>
+  <si>
+    <t>Data collection; Hardware; Performance evaluation; Radar antennas; Robot sensing systems; Three-dimensional displays; Uncertainty</t>
+  </si>
+  <si>
+    <t>Terabee</t>
+  </si>
+  <si>
+    <t>TeraRanger Evo Thermal User Manual</t>
+  </si>
+  <si>
+    <t>Voynick, Stan</t>
+  </si>
+  <si>
+    <t>What is a microbolometer?</t>
+  </si>
+  <si>
+    <t>safety; human robot collaboration; ISO/TS 15066; kinect v2</t>
+  </si>
+  <si>
+    <t>3DTOF; PC; kinect</t>
+  </si>
+  <si>
+    <t>LiDAR; Safety; Manipulators; PC; Manufacturing; Agile manufacturing; AGV safety; Computers–Robotics; Fault tolerance; Functional safety; Manipulator; Mobile manipulator; mobile manipulators; Robot arms; robot safety</t>
+  </si>
+  <si>
+    <t>Collaboration; Collision avoidance; Service robots; Safety; Trajectory; motion planning; safety standards; industrial robots; Human-robot collaboration; Joints</t>
+  </si>
+  <si>
+    <t>IWR6843AOP data sheet, product information and support | TI.com</t>
+  </si>
+  <si>
+    <t>D3 Embedded</t>
+  </si>
+  <si>
+    <t>Radar Sensors</t>
   </si>
 </sst>
 </file>
@@ -3728,7 +3755,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -7868,7 +7895,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -11461,7 +11488,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -14248,7 +14275,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -23749,16 +23776,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825518CA-F60F-4DC4-87D6-FEDC2F6AE5B4}">
-  <dimension ref="A1:BA111"/>
+  <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AR57" sqref="AR57"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG81" sqref="AG81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625"/>
-    <col min="5" max="6" width="73" customWidth="1"/>
+    <col min="1" max="1" width="9.140625"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="158.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="6" max="6" width="73" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
@@ -23906,10 +23937,10 @@
         <v>338</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G2">
         <f>IF(AND(
@@ -24031,44 +24062,44 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUM(G2:G80)</f>
+        <f>SUM(G2:G101)</f>
         <v>11</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:AO2" si="1">SUM(H2:H80)</f>
-        <v>14</v>
+        <f>SUM(H2:H101)</f>
+        <v>18</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUM(I2:I101)</f>
+        <v>12</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="1"/>
+        <f>SUM(J2:J101)</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="1"/>
+        <f>SUM(K2:K101)</f>
         <v>4</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AD2:AO2" si="1">SUM(L2:L101)</f>
         <v>10</v>
       </c>
       <c r="AE2">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AI2">
         <f t="shared" si="1"/>
@@ -24076,7 +24107,7 @@
       </c>
       <c r="AJ2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK2">
         <f t="shared" si="1"/>
@@ -24113,10 +24144,10 @@
         <v>339</v>
       </c>
       <c r="E3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">IF(AND(
@@ -24301,7 +24332,7 @@
         <v>296</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -24312,13 +24343,13 @@
         <v>45578</v>
       </c>
       <c r="C4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" t="s">
         <v>401</v>
-      </c>
-      <c r="D4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" t="s">
-        <v>403</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
@@ -24389,67 +24420,67 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIF($A$2:$A$99, AP4, $G$2:$G$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $G$2:$G$101)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIF($A$2:$A$99, AP4, $H$2:$H$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $H$2:$H$101)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIF($A$2:$A$99, AP4, $I$2:$I$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $I$2:$I$101)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIF($A$2:$A$99, AP4, $J$2:$J$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $J$2:$J$101)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>SUMIF($A$2:$A$99, AP4, $K$2:$K$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $K$2:$K$101)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIF($A$2:$A$99, AP4, $L$2:$L$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $L$2:$L$101)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIF($A$2:$A$99, AP4, $M$2:$M$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $M$2:$M$101)</f>
         <v>1</v>
       </c>
       <c r="AF4">
-        <f>SUMIF($A$2:$A$99, AP4, $N$2:$N$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $N$2:$N$101)</f>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f>SUMIF($A$2:$A$99, AP4, $O$2:$O$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $O$2:$O$101)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIF($A$2:$A$99, AP4, $P$2:$P$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $P$2:$P$101)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIF($A$2:$A$99, AP4, $Q$2:$Q$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $Q$2:$Q$101)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIF($A$2:$A$99, AP4, $R$2:$R$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $R$2:$R$101)</f>
         <v>1</v>
       </c>
       <c r="AK4">
-        <f>SUMIF($A$2:$A$99, AP4, $S$2:$S$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $S$2:$S$101)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIF($A$2:$A$99, AP4, $T$2:$T$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $T$2:$T$101)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIF($A$2:$A$99, AP4, $U$2:$U$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $U$2:$U$101)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIF($A$2:$A$99, AP4, $V$2:$V$99)</f>
+        <f>SUMIF($A$2:$A$101, AP4, $V$2:$V$101)</f>
         <v>0</v>
       </c>
       <c r="AO4">
@@ -24478,19 +24509,16 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
+        <v>431</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -24561,90 +24589,90 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" ref="Y5:Y32" si="19">SUMIF($A$2:$A$99, AP5, $G$2:$G$99)</f>
+        <f t="shared" ref="Y5:Y32" si="19">SUMIF($A$2:$A$101, AP5, $G$2:$G$101)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z32" si="20">SUMIF($A$2:$A$99, AP5, $H$2:$H$99)</f>
+        <f t="shared" ref="Z5:Z32" si="20">SUMIF($A$2:$A$101, AP5, $H$2:$H$101)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AA32" si="21">SUMIF($A$2:$A$99, AP5, $I$2:$I$99)</f>
+        <f t="shared" ref="AA5:AA32" si="21">SUMIF($A$2:$A$101, AP5, $I$2:$I$101)</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB32" si="22">SUMIF($A$2:$A$99, AP5, $J$2:$J$99)</f>
+        <f t="shared" ref="AB5:AB32" si="22">SUMIF($A$2:$A$101, AP5, $J$2:$J$101)</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5:AC32" si="23">SUMIF($A$2:$A$99, AP5, $K$2:$K$99)</f>
+        <f t="shared" ref="AC5:AC32" si="23">SUMIF($A$2:$A$101, AP5, $K$2:$K$101)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" ref="AD5:AD32" si="24">SUMIF($A$2:$A$99, AP5, $L$2:$L$99)</f>
+        <f t="shared" ref="AD5:AD32" si="24">SUMIF($A$2:$A$101, AP5, $L$2:$L$101)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" ref="AE5:AE32" si="25">SUMIF($A$2:$A$99, AP5, $M$2:$M$99)</f>
+        <f t="shared" ref="AE5:AE32" si="25">SUMIF($A$2:$A$101, AP5, $M$2:$M$101)</f>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f t="shared" ref="AF5:AF32" si="26">SUMIF($A$2:$A$99, AP5, $N$2:$N$99)</f>
+        <f t="shared" ref="AF5:AF32" si="26">SUMIF($A$2:$A$101, AP5, $N$2:$N$101)</f>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" ref="AG5:AG32" si="27">SUMIF($A$2:$A$99, AP5, $O$2:$O$99)</f>
+        <f t="shared" ref="AG5:AG32" si="27">SUMIF($A$2:$A$101, AP5, $O$2:$O$101)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f t="shared" ref="AH5:AH32" si="28">SUMIF($A$2:$A$99, AP5, $P$2:$P$99)</f>
+        <f t="shared" ref="AH5:AH32" si="28">SUMIF($A$2:$A$101, AP5, $P$2:$P$101)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AI32" si="29">SUMIF($A$2:$A$99, AP5, $Q$2:$Q$99)</f>
+        <f t="shared" ref="AI5:AI32" si="29">SUMIF($A$2:$A$101, AP5, $Q$2:$Q$101)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ32" si="30">SUMIF($A$2:$A$99, AP5, $R$2:$R$99)</f>
+        <f t="shared" ref="AJ5:AJ32" si="30">SUMIF($A$2:$A$101, AP5, $R$2:$R$101)</f>
         <v>0</v>
       </c>
       <c r="AK5">
-        <f t="shared" ref="AK5:AK32" si="31">SUMIF($A$2:$A$99, AP5, $S$2:$S$99)</f>
+        <f t="shared" ref="AK5:AK32" si="31">SUMIF($A$2:$A$101, AP5, $S$2:$S$101)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f t="shared" ref="AL5:AL32" si="32">SUMIF($A$2:$A$99, AP5, $T$2:$T$99)</f>
+        <f t="shared" ref="AL5:AL32" si="32">SUMIF($A$2:$A$101, AP5, $T$2:$T$101)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM32" si="33">SUMIF($A$2:$A$99, AP5, $U$2:$U$99)</f>
+        <f t="shared" ref="AM5:AM32" si="33">SUMIF($A$2:$A$101, AP5, $U$2:$U$101)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f t="shared" ref="AN5:AN32" si="34">SUMIF($A$2:$A$99, AP5, $V$2:$V$99)</f>
+        <f t="shared" ref="AN5:AN32" si="34">SUMIF($A$2:$A$101, AP5, $V$2:$V$101)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AO32" si="35">SUMIF($A$2:$A$99, AP5, $W$2:$W$99)</f>
+        <f>SUMIF($A$2:$A$101, AP5, $W$2:$W$101)</f>
         <v>0</v>
       </c>
       <c r="AP5">
         <v>1997</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ32" si="36">SUM(AD5+AE5)</f>
+        <f t="shared" ref="AQ5:AQ32" si="35">SUM(AD5+AE5)</f>
         <v>0</v>
       </c>
       <c r="AR5">
-        <f t="shared" ref="AR5:AR32" si="37">Y5+Z5</f>
+        <f t="shared" ref="AR5:AR32" si="36">Y5+Z5</f>
         <v>0</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AS32" si="38">AH5+AJ5</f>
+        <f t="shared" ref="AS5:AS32" si="37">AH5+AJ5</f>
         <v>0</v>
       </c>
       <c r="AT5">
-        <f t="shared" ref="AT5:AT32" si="39">AO5+AN5+AM5+AK5</f>
+        <f t="shared" ref="AT5:AT32" si="38">AO5+AN5+AM5+AK5</f>
         <v>0</v>
       </c>
     </row>
@@ -24656,13 +24684,13 @@
         <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -24797,26 +24825,26 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AO6:AO32" si="39">SUMIF($A$2:$A$101, AP6, $W$2:$W$101)</f>
         <v>0</v>
       </c>
       <c r="AP6">
         <v>1998</v>
       </c>
       <c r="AQ6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR6">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -24828,13 +24856,13 @@
         <v>2023</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -24969,26 +24997,26 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP7">
         <v>1999</v>
       </c>
       <c r="AQ7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -25000,13 +25028,13 @@
         <v>2023</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -25141,26 +25169,26 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP8">
         <v>2000</v>
       </c>
       <c r="AQ8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR8">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -25172,16 +25200,13 @@
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -25209,7 +25234,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="9"/>
@@ -25221,7 +25246,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="12"/>
@@ -25316,26 +25341,26 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP9">
         <v>2001</v>
       </c>
       <c r="AQ9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -25343,20 +25368,20 @@
       <c r="A10">
         <v>2023</v>
       </c>
-      <c r="B10" t="s">
-        <v>229</v>
+      <c r="B10">
+        <v>2023</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -25380,11 +25405,11 @@
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="9"/>
@@ -25392,11 +25417,11 @@
       </c>
       <c r="O10">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="12"/>
@@ -25408,11 +25433,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <f t="shared" si="16"/>
@@ -25491,26 +25516,26 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP10">
         <v>2002</v>
       </c>
       <c r="AQ10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR10">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -25522,16 +25547,16 @@
         <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>380</v>
+        <v>231</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -25555,7 +25580,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f t="shared" si="8"/>
@@ -25567,7 +25592,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <f t="shared" si="11"/>
@@ -25583,11 +25608,11 @@
       </c>
       <c r="S11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <f t="shared" si="16"/>
@@ -25666,26 +25691,26 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP11">
         <v>2003</v>
       </c>
       <c r="AQ11">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR11">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -25693,20 +25718,20 @@
       <c r="A12">
         <v>2023</v>
       </c>
-      <c r="B12" s="1">
-        <v>44927</v>
+      <c r="B12" t="s">
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -25841,26 +25866,26 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP12">
         <v>2004</v>
       </c>
       <c r="AQ12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -25868,17 +25893,20 @@
       <c r="A13">
         <v>2023</v>
       </c>
-      <c r="B13" t="s">
-        <v>229</v>
+      <c r="B13" s="1">
+        <v>44927</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="E13" t="s">
+        <v>359</v>
       </c>
       <c r="F13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -26013,26 +26041,26 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP13">
         <v>2005</v>
       </c>
       <c r="AQ13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR13">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -26041,19 +26069,16 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="F14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -26105,7 +26130,7 @@
       </c>
       <c r="S14">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <f t="shared" si="15"/>
@@ -26188,26 +26213,26 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP14">
         <v>2006</v>
       </c>
       <c r="AQ14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR14">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -26215,20 +26240,20 @@
       <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B15" s="1">
-        <v>45022</v>
+      <c r="B15" t="s">
+        <v>297</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -26240,7 +26265,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
@@ -26256,7 +26281,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f t="shared" si="9"/>
@@ -26268,7 +26293,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <f t="shared" si="12"/>
@@ -26280,7 +26305,7 @@
       </c>
       <c r="S15">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <f t="shared" si="15"/>
@@ -26363,26 +26388,26 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP15">
         <v>2007</v>
       </c>
       <c r="AQ15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -26390,24 +26415,24 @@
       <c r="A16">
         <v>2023</v>
       </c>
-      <c r="B16">
-        <v>2023</v>
+      <c r="B16" s="1">
+        <v>45022</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
@@ -26415,7 +26440,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
@@ -26431,7 +26456,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <f t="shared" si="9"/>
@@ -26443,7 +26468,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <f t="shared" si="12"/>
@@ -26459,7 +26484,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <f t="shared" si="16"/>
@@ -26538,26 +26563,26 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP16">
         <v>2008</v>
       </c>
       <c r="AQ16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR16">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -26565,24 +26590,24 @@
       <c r="A17">
         <v>2023</v>
       </c>
-      <c r="B17" t="s">
-        <v>298</v>
+      <c r="B17">
+        <v>2023</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
@@ -26618,7 +26643,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <f t="shared" si="12"/>
@@ -26634,7 +26659,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <f t="shared" si="16"/>
@@ -26713,26 +26738,26 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP17">
         <v>2009</v>
       </c>
       <c r="AQ17">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR17">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -26744,16 +26769,16 @@
         <v>298</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -26888,26 +26913,26 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP18">
         <v>2010</v>
       </c>
       <c r="AQ18">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR18">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -26915,24 +26940,24 @@
       <c r="A19">
         <v>2023</v>
       </c>
-      <c r="B19">
-        <v>2023</v>
+      <c r="B19" t="s">
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E19" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="F19" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
@@ -26960,7 +26985,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <f t="shared" si="10"/>
@@ -26968,7 +26993,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <f t="shared" si="12"/>
@@ -26984,7 +27009,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <f t="shared" si="16"/>
@@ -27063,26 +27088,26 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP19">
         <v>2011</v>
       </c>
       <c r="AQ19">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AR19">
         <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="AR19">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AS19">
+      <c r="AT19">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="AT19">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -27090,24 +27115,24 @@
       <c r="A20">
         <v>2023</v>
       </c>
-      <c r="B20" t="s">
-        <v>303</v>
+      <c r="B20">
+        <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="F20" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
@@ -27131,7 +27156,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <f t="shared" si="9"/>
@@ -27143,7 +27168,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <f t="shared" si="12"/>
@@ -27159,7 +27184,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <f t="shared" si="16"/>
@@ -27238,26 +27263,26 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP20">
         <v>2012</v>
       </c>
       <c r="AQ20">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AR20">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="AT20">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -27265,17 +27290,20 @@
       <c r="A21">
         <v>2023</v>
       </c>
-      <c r="B21" s="1">
-        <v>45216</v>
+      <c r="B21" t="s">
+        <v>303</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E21" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="F21" t="s">
+        <v>403</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -27410,26 +27438,26 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP21">
         <v>2013</v>
       </c>
       <c r="AQ21">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AR21">
         <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="AR21">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AS21">
+      <c r="AT21">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="AT21">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -27437,17 +27465,17 @@
       <c r="A22">
         <v>2023</v>
       </c>
-      <c r="B22" t="s">
-        <v>229</v>
+      <c r="B22" s="1">
+        <v>45216</v>
       </c>
       <c r="C22" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>407</v>
-      </c>
-      <c r="F22" t="s">
-        <v>408</v>
+        <v>341</v>
+      </c>
+      <c r="E22" t="s">
+        <v>402</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -27475,7 +27503,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <f t="shared" si="9"/>
@@ -27487,7 +27515,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <f t="shared" si="12"/>
@@ -27582,26 +27610,26 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP22">
         <v>2014</v>
       </c>
       <c r="AQ22">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR22">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
         <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AS22">
+        <v>2</v>
+      </c>
+      <c r="AT22">
         <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -27613,13 +27641,13 @@
         <v>229</v>
       </c>
       <c r="C23" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -27754,44 +27782,44 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP23">
         <v>2015</v>
       </c>
       <c r="AQ23">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2022</v>
-      </c>
-      <c r="B24">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>407</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>347</v>
+        <v>408</v>
+      </c>
+      <c r="F24" t="s">
+        <v>409</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -27799,7 +27827,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
@@ -27831,7 +27859,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <f t="shared" si="12"/>
@@ -27843,7 +27871,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f t="shared" si="15"/>
@@ -27855,7 +27883,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <f t="shared" si="18"/>
@@ -27926,26 +27954,26 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP24">
         <v>2016</v>
       </c>
       <c r="AQ24">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
         <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
         <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AY24" t="s">
@@ -27955,21 +27983,21 @@
         <v>273</v>
       </c>
       <c r="BA24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>434</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -28104,44 +28132,41 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP25">
         <v>2017</v>
       </c>
       <c r="AQ25">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR25">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
         <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
         <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2022</v>
-      </c>
-      <c r="B26">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45054</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" t="s">
-        <v>166</v>
+        <v>437</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -28149,11 +28174,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
@@ -28189,7 +28214,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="14"/>
@@ -28276,26 +28301,26 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AP26">
         <v>2018</v>
       </c>
       <c r="AQ26">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR26">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="AT26">
-        <f t="shared" si="39"/>
         <v>2</v>
       </c>
     </row>
@@ -28303,20 +28328,17 @@
       <c r="A27">
         <v>2022</v>
       </c>
-      <c r="B27" t="s">
-        <v>211</v>
+      <c r="B27">
+        <v>2022</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
-      </c>
-      <c r="F27" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -28356,7 +28378,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <f t="shared" si="12"/>
@@ -28364,11 +28386,11 @@
       </c>
       <c r="R27">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <f t="shared" si="15"/>
@@ -28380,7 +28402,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <f t="shared" si="18"/>
@@ -28451,26 +28473,26 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP27">
         <v>2019</v>
       </c>
       <c r="AQ27">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AR27">
         <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AR27">
+        <v>8</v>
+      </c>
+      <c r="AS27">
         <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="AS27">
+        <v>10</v>
+      </c>
+      <c r="AT27">
         <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="AT27">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -28478,17 +28500,14 @@
       <c r="A28">
         <v>2022</v>
       </c>
-      <c r="B28" s="1">
-        <v>44835</v>
+      <c r="B28">
+        <v>2022</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
@@ -28516,7 +28535,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <f t="shared" si="9"/>
@@ -28528,7 +28547,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <f t="shared" si="12"/>
@@ -28623,26 +28642,26 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP28">
         <v>2020</v>
       </c>
       <c r="AQ28">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AR28">
         <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="AR28">
+        <v>4</v>
+      </c>
+      <c r="AS28">
         <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="AS28">
+        <v>5</v>
+      </c>
+      <c r="AT28">
         <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -28650,32 +28669,29 @@
       <c r="A29">
         <v>2022</v>
       </c>
-      <c r="B29" t="s">
-        <v>236</v>
+      <c r="B29">
+        <v>2022</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>356</v>
-      </c>
-      <c r="F29" t="s">
-        <v>378</v>
+        <v>166</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
@@ -28703,7 +28719,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <f t="shared" si="12"/>
@@ -28711,7 +28727,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <f t="shared" si="14"/>
@@ -28719,7 +28735,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <f t="shared" si="16"/>
@@ -28798,26 +28814,26 @@
         <v>1</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP29">
         <v>2021</v>
       </c>
       <c r="AQ29">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="AR29">
         <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AR29">
+        <v>2</v>
+      </c>
+      <c r="AS29">
         <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="AS29">
+        <v>8</v>
+      </c>
+      <c r="AT29">
         <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="39"/>
         <v>3</v>
       </c>
     </row>
@@ -28825,20 +28841,20 @@
       <c r="A30">
         <v>2022</v>
       </c>
-      <c r="B30">
-        <v>2022</v>
+      <c r="B30" t="s">
+        <v>211</v>
       </c>
       <c r="C30" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
@@ -28846,7 +28862,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
@@ -28870,7 +28886,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <f t="shared" si="10"/>
@@ -28878,7 +28894,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <f t="shared" si="12"/>
@@ -28886,7 +28902,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <f t="shared" si="14"/>
@@ -28973,26 +28989,26 @@
         <v>1</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP30">
         <v>2022</v>
       </c>
       <c r="AQ30">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AR30">
         <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="AR30">
+        <v>5</v>
+      </c>
+      <c r="AS30">
         <f t="shared" si="37"/>
-        <v>5</v>
-      </c>
-      <c r="AS30">
+        <v>7</v>
+      </c>
+      <c r="AT30">
         <f t="shared" si="38"/>
-        <v>7</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="39"/>
         <v>2</v>
       </c>
     </row>
@@ -29000,24 +29016,21 @@
       <c r="A31">
         <v>2022</v>
       </c>
-      <c r="B31" t="s">
-        <v>299</v>
+      <c r="B31" s="1">
+        <v>44835</v>
       </c>
       <c r="C31" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F31" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
@@ -29041,7 +29054,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="9"/>
@@ -29053,7 +29066,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <f t="shared" si="12"/>
@@ -29069,7 +29082,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="16"/>
@@ -29113,7 +29126,7 @@
       </c>
       <c r="AF31">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
         <f t="shared" si="27"/>
@@ -29148,26 +29161,26 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP31">
         <v>2023</v>
       </c>
       <c r="AQ31">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="AR31">
         <f t="shared" si="36"/>
-        <v>5</v>
-      </c>
-      <c r="AR31">
+        <v>2</v>
+      </c>
+      <c r="AS31">
         <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="AS31">
+        <v>6</v>
+      </c>
+      <c r="AT31">
         <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="39"/>
         <v>2</v>
       </c>
     </row>
@@ -29176,23 +29189,23 @@
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F32" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
@@ -29208,7 +29221,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <f t="shared" si="7"/>
@@ -29216,7 +29229,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <f t="shared" si="9"/>
@@ -29244,7 +29257,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <f t="shared" si="16"/>
@@ -29323,44 +29336,47 @@
         <v>0</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP32">
         <v>2024</v>
       </c>
       <c r="AQ32">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AR32">
         <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="AR32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AS32">
+      <c r="AT32">
         <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>366</v>
+      </c>
+      <c r="F33" t="s">
+        <v>387</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
@@ -29392,7 +29408,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <f t="shared" si="10"/>
@@ -29400,7 +29416,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <f t="shared" si="12"/>
@@ -29433,23 +29449,26 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2021</v>
-      </c>
-      <c r="B34">
-        <v>2021</v>
+        <v>2022</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>367</v>
+      </c>
+      <c r="F34" t="s">
+        <v>388</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
@@ -29501,7 +29520,7 @@
       </c>
       <c r="T34">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <f t="shared" si="16"/>
@@ -29518,19 +29537,22 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>368</v>
+      </c>
+      <c r="F35" t="s">
+        <v>389</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
@@ -29538,11 +29560,11 @@
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
@@ -29550,7 +29572,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <f t="shared" si="7"/>
@@ -29558,11 +29580,11 @@
       </c>
       <c r="M35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <f t="shared" si="10"/>
@@ -29570,7 +29592,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <f t="shared" si="12"/>
@@ -29582,7 +29604,7 @@
       </c>
       <c r="S35">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <f t="shared" si="15"/>
@@ -29590,11 +29612,11 @@
       </c>
       <c r="U35">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <f t="shared" si="18"/>
@@ -29605,17 +29627,17 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" t="s">
-        <v>77</v>
+      <c r="B36">
+        <v>2021</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>344</v>
+        <v>26</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
@@ -29694,13 +29716,13 @@
         <v>2021</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -29724,7 +29746,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <f t="shared" si="8"/>
@@ -29736,11 +29758,11 @@
       </c>
       <c r="O37">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <f t="shared" si="12"/>
@@ -29775,17 +29797,17 @@
       <c r="A38">
         <v>2021</v>
       </c>
-      <c r="B38">
-        <v>2021</v>
+      <c r="B38" t="s">
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>345</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
@@ -29793,11 +29815,11 @@
       </c>
       <c r="H38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
@@ -29833,11 +29855,11 @@
       </c>
       <c r="R38">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <f t="shared" si="15"/>
@@ -29845,11 +29867,11 @@
       </c>
       <c r="U38">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <f t="shared" si="18"/>
@@ -29861,16 +29883,16 @@
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
@@ -29906,11 +29928,11 @@
       </c>
       <c r="O39">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <f t="shared" si="12"/>
@@ -29945,17 +29967,17 @@
       <c r="A40">
         <v>2021</v>
       </c>
-      <c r="B40" t="s">
-        <v>85</v>
+      <c r="B40">
+        <v>2021</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
@@ -29979,7 +30001,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <f t="shared" si="8"/>
@@ -29991,11 +30013,11 @@
       </c>
       <c r="O40">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <f t="shared" si="12"/>
@@ -30034,13 +30056,13 @@
         <v>2021</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
@@ -30060,19 +30082,19 @@
       </c>
       <c r="K41">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <f t="shared" si="10"/>
@@ -30080,7 +30102,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <f t="shared" si="12"/>
@@ -30088,7 +30110,7 @@
       </c>
       <c r="R41">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <f t="shared" si="14"/>
@@ -30115,17 +30137,17 @@
       <c r="A42">
         <v>2021</v>
       </c>
-      <c r="B42">
-        <v>2021</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
@@ -30133,11 +30155,11 @@
       </c>
       <c r="H42">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <f t="shared" si="5"/>
@@ -30149,11 +30171,11 @@
       </c>
       <c r="L42">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <f t="shared" si="9"/>
@@ -30161,7 +30183,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <f t="shared" si="11"/>
@@ -30200,17 +30222,17 @@
       <c r="A43">
         <v>2021</v>
       </c>
-      <c r="B43">
-        <v>2021</v>
+      <c r="B43" t="s">
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
@@ -30285,20 +30307,17 @@
       <c r="A44">
         <v>2021</v>
       </c>
-      <c r="B44" t="s">
-        <v>202</v>
+      <c r="B44">
+        <v>2021</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
@@ -30310,7 +30329,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f t="shared" si="5"/>
@@ -30318,11 +30337,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <f t="shared" si="8"/>
@@ -30373,20 +30392,17 @@
       <c r="A45">
         <v>2021</v>
       </c>
-      <c r="B45" t="s">
-        <v>77</v>
+      <c r="B45">
+        <v>2021</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F45" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
@@ -30394,11 +30410,11 @@
       </c>
       <c r="H45">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <f t="shared" si="5"/>
@@ -30406,15 +30422,15 @@
       </c>
       <c r="K45">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <f t="shared" si="9"/>
@@ -30426,7 +30442,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <f t="shared" si="12"/>
@@ -30434,7 +30450,7 @@
       </c>
       <c r="R45">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <f t="shared" si="14"/>
@@ -30461,20 +30477,17 @@
       <c r="A46">
         <v>2021</v>
       </c>
-      <c r="B46" t="s">
-        <v>222</v>
+      <c r="B46">
+        <v>2021</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>355</v>
-      </c>
-      <c r="F46" t="s">
-        <v>377</v>
+        <v>172</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
@@ -30549,20 +30562,20 @@
       <c r="A47">
         <v>2021</v>
       </c>
-      <c r="B47" s="1">
-        <v>44228</v>
+      <c r="B47" t="s">
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>204</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
@@ -30590,11 +30603,11 @@
       </c>
       <c r="M47">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <f t="shared" si="10"/>
@@ -30635,19 +30648,22 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>219</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
@@ -30667,7 +30683,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <f t="shared" si="7"/>
@@ -30695,7 +30711,7 @@
       </c>
       <c r="R48">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
         <f t="shared" si="14"/>
@@ -30720,19 +30736,22 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>355</v>
+      </c>
+      <c r="F49" t="s">
+        <v>376</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
@@ -30740,7 +30759,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <f t="shared" si="4"/>
@@ -30756,7 +30775,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <f t="shared" si="8"/>
@@ -30772,7 +30791,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <f t="shared" si="12"/>
@@ -30805,19 +30824,22 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2020</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
+        <v>2021</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44228</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>369</v>
+      </c>
+      <c r="F50" t="s">
+        <v>390</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
@@ -30829,7 +30851,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <f t="shared" si="5"/>
@@ -30849,7 +30871,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
         <f t="shared" si="10"/>
@@ -30857,7 +30879,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <f t="shared" si="12"/>
@@ -30893,16 +30915,16 @@
         <v>2020</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
@@ -30914,7 +30936,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <f t="shared" si="5"/>
@@ -30926,7 +30948,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <f t="shared" si="8"/>
@@ -30942,7 +30964,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <f t="shared" si="12"/>
@@ -30978,16 +31000,16 @@
         <v>2020</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
@@ -31011,7 +31033,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <f t="shared" si="8"/>
@@ -31063,20 +31085,20 @@
         <v>2020</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
@@ -31112,7 +31134,7 @@
       </c>
       <c r="P53">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <f t="shared" si="12"/>
@@ -31147,14 +31169,17 @@
       <c r="A54">
         <v>2020</v>
       </c>
-      <c r="B54">
-        <v>2020</v>
+      <c r="B54" t="s">
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>323</v>
+        <v>148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
@@ -31166,7 +31191,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <f t="shared" si="5"/>
@@ -31178,7 +31203,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <f t="shared" si="8"/>
@@ -31194,7 +31219,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <f t="shared" si="12"/>
@@ -31229,28 +31254,25 @@
       <c r="A55">
         <v>2020</v>
       </c>
-      <c r="B55">
-        <v>2020</v>
+      <c r="B55" t="s">
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>371</v>
-      </c>
-      <c r="F55" t="s">
-        <v>393</v>
+        <v>154</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <f t="shared" si="4"/>
@@ -31282,7 +31304,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <f t="shared" si="12"/>
@@ -31298,7 +31320,7 @@
       </c>
       <c r="T55">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55">
         <f t="shared" si="16"/>
@@ -31317,24 +31339,21 @@
       <c r="A56">
         <v>2020</v>
       </c>
-      <c r="B56" s="1">
-        <v>43862</v>
+      <c r="B56" t="s">
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
-        <v>372</v>
-      </c>
-      <c r="F56" t="s">
-        <v>394</v>
+        <v>158</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <f t="shared" si="3"/>
@@ -31366,7 +31385,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <f t="shared" si="11"/>
@@ -31403,23 +31422,20 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2019</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
+        <v>2020</v>
+      </c>
+      <c r="B57">
+        <v>2020</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <f t="shared" si="3"/>
@@ -31455,7 +31471,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <f t="shared" si="12"/>
@@ -31471,7 +31487,7 @@
       </c>
       <c r="T57">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57">
         <f t="shared" si="16"/>
@@ -31488,27 +31504,30 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2019</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
+        <v>2020</v>
+      </c>
+      <c r="B58">
+        <v>2020</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>370</v>
+      </c>
+      <c r="F58" t="s">
+        <v>391</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -31524,7 +31543,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <f t="shared" si="8"/>
@@ -31548,7 +31567,7 @@
       </c>
       <c r="R58">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <f t="shared" si="14"/>
@@ -31556,7 +31575,7 @@
       </c>
       <c r="T58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <f t="shared" si="16"/>
@@ -31573,23 +31592,26 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2019</v>
-      </c>
-      <c r="B59" t="s">
-        <v>38</v>
+        <v>2020</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43862</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>371</v>
+      </c>
+      <c r="F59" t="s">
+        <v>392</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
@@ -31621,7 +31643,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <f t="shared" si="11"/>
@@ -31641,7 +31663,7 @@
       </c>
       <c r="T59">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59">
         <f t="shared" si="16"/>
@@ -31660,21 +31682,21 @@
       <c r="A60">
         <v>2019</v>
       </c>
-      <c r="B60">
-        <v>2019</v>
+      <c r="B60" t="s">
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <f t="shared" si="3"/>
@@ -31710,7 +31732,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <f t="shared" si="12"/>
@@ -31726,7 +31748,7 @@
       </c>
       <c r="T60">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <f t="shared" si="16"/>
@@ -31746,16 +31768,16 @@
         <v>2019</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
@@ -31763,7 +31785,7 @@
       </c>
       <c r="H61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <f t="shared" si="4"/>
@@ -31783,7 +31805,7 @@
       </c>
       <c r="M61">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <f t="shared" si="9"/>
@@ -31803,7 +31825,7 @@
       </c>
       <c r="R61">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <f t="shared" si="14"/>
@@ -31831,24 +31853,24 @@
         <v>2019</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
@@ -31896,7 +31918,7 @@
       </c>
       <c r="T62">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <f t="shared" si="16"/>
@@ -31919,13 +31941,13 @@
         <v>2019</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
@@ -32001,16 +32023,16 @@
         <v>2019</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
@@ -32034,7 +32056,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <f t="shared" si="8"/>
@@ -32050,7 +32072,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <f t="shared" si="12"/>
@@ -32086,16 +32108,16 @@
         <v>2019</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
@@ -32103,7 +32125,7 @@
       </c>
       <c r="H65">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
@@ -32115,7 +32137,7 @@
       </c>
       <c r="K65">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <f t="shared" si="7"/>
@@ -32123,7 +32145,7 @@
       </c>
       <c r="M65">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <f t="shared" si="9"/>
@@ -32170,17 +32192,17 @@
       <c r="A66">
         <v>2019</v>
       </c>
-      <c r="B66" t="s">
-        <v>73</v>
+      <c r="B66">
+        <v>2019</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
@@ -32256,23 +32278,23 @@
         <v>2019</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G80" si="40">IF(AND(
   OR(ISNUMBER(FIND($G$1 &amp; ";", E67 &amp; ";")), ISNUMBER(FIND($G$1 &amp; " ", E67 &amp; " "))),
   AND(ISERROR(FIND($G$1 &amp; "_EX;", E67 &amp; ";")), ISERROR(FIND($G$1 &amp; "_EX ", E67 &amp; " ")))
 ), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H80" si="41">IF(AND(
@@ -32314,7 +32336,7 @@
   OR(ISNUMBER(FIND($M$1 &amp; ";", E67 &amp; ";")), ISNUMBER(FIND($M$1 &amp; " ", E67 &amp; " "))),
   AND(ISERROR(FIND($M$1 &amp; "_EX;", E67 &amp; ";")), ISERROR(FIND($M$1 &amp; "_EX ", E67 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N80" si="47">IF(AND(
@@ -32363,7 +32385,7 @@
   OR(ISNUMBER(FIND($T$1 &amp; ";", E67 &amp; ";")), ISNUMBER(FIND($T$1 &amp; " ", E67 &amp; " "))),
   AND(ISERROR(FIND($T$1 &amp; "_EX;", E67 &amp; ";")), ISERROR(FIND($T$1 &amp; "_EX ", E67 &amp; " ")))
 ), 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U80" si="54">IF(AND(
@@ -32392,20 +32414,20 @@
         <v>2019</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G68">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <f t="shared" si="41"/>
@@ -32421,7 +32443,7 @@
       </c>
       <c r="K68">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <f t="shared" si="45"/>
@@ -32429,7 +32451,7 @@
       </c>
       <c r="M68">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <f t="shared" si="47"/>
@@ -32457,7 +32479,7 @@
       </c>
       <c r="T68">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68">
         <f t="shared" si="54"/>
@@ -32477,16 +32499,16 @@
         <v>2019</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="G69">
         <f t="shared" si="40"/>
@@ -32494,7 +32516,7 @@
       </c>
       <c r="H69">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <f t="shared" si="42"/>
@@ -32526,7 +32548,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
         <f t="shared" si="50"/>
@@ -32561,24 +32583,21 @@
       <c r="A70">
         <v>2019</v>
       </c>
-      <c r="B70" s="1">
-        <v>43678</v>
+      <c r="B70" t="s">
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="G70">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <f t="shared" si="41"/>
@@ -32586,7 +32605,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <f t="shared" si="43"/>
@@ -32630,7 +32649,7 @@
       </c>
       <c r="T70">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70">
         <f t="shared" si="54"/>
@@ -32650,28 +32669,28 @@
         <v>2019</v>
       </c>
       <c r="B71" t="s">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>337</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="G71">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <f t="shared" si="43"/>
@@ -32683,7 +32702,7 @@
       </c>
       <c r="L71">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <f t="shared" si="46"/>
@@ -32691,7 +32710,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <f t="shared" si="48"/>
@@ -32699,7 +32718,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <f t="shared" si="50"/>
@@ -32711,11 +32730,11 @@
       </c>
       <c r="S71">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71">
         <f t="shared" si="54"/>
@@ -32734,11 +32753,17 @@
       <c r="A72">
         <v>2019</v>
       </c>
-      <c r="B72">
-        <v>2019</v>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>412</v>
+        <v>162</v>
+      </c>
+      <c r="E72" t="s">
+        <v>352</v>
       </c>
       <c r="G72">
         <f t="shared" si="40"/>
@@ -32746,7 +32771,7 @@
       </c>
       <c r="H72">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <f t="shared" si="42"/>
@@ -32778,7 +32803,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <f t="shared" si="50"/>
@@ -32811,23 +32836,26 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2018</v>
-      </c>
-      <c r="B73" t="s">
-        <v>49</v>
+        <v>2019</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43678</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>207</v>
+      </c>
+      <c r="F73" t="s">
+        <v>208</v>
       </c>
       <c r="G73">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <f t="shared" si="41"/>
@@ -32835,7 +32863,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <f t="shared" si="43"/>
@@ -32879,7 +32907,7 @@
       </c>
       <c r="T73">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <f t="shared" si="54"/>
@@ -32896,19 +32924,19 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="E74" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="G74">
         <f t="shared" si="40"/>
@@ -32920,7 +32948,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <f t="shared" si="43"/>
@@ -32932,7 +32960,7 @@
       </c>
       <c r="L74">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <f t="shared" si="46"/>
@@ -32940,7 +32968,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74">
         <f t="shared" si="48"/>
@@ -32956,11 +32984,11 @@
       </c>
       <c r="R74">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74">
         <f t="shared" si="53"/>
@@ -32981,19 +33009,13 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2018</v>
-      </c>
-      <c r="B75" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" t="s">
-        <v>114</v>
+        <v>2019</v>
+      </c>
+      <c r="B75">
+        <v>2019</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="G75">
         <f t="shared" si="40"/>
@@ -33025,7 +33047,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <f t="shared" si="48"/>
@@ -33045,7 +33067,7 @@
       </c>
       <c r="S75">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75">
         <f t="shared" si="53"/>
@@ -33061,35 +33083,32 @@
       </c>
       <c r="W75">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2018</v>
       </c>
-      <c r="B76" s="1">
-        <v>43101</v>
+      <c r="B76" t="s">
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>414</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" t="s">
-        <v>415</v>
+        <v>50</v>
       </c>
       <c r="G76">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <f t="shared" si="42"/>
@@ -33137,7 +33156,7 @@
       </c>
       <c r="T76">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76">
         <f t="shared" si="54"/>
@@ -33154,19 +33173,19 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="G77">
         <f t="shared" si="40"/>
@@ -33174,7 +33193,7 @@
       </c>
       <c r="H77">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <f t="shared" si="42"/>
@@ -33214,7 +33233,7 @@
       </c>
       <c r="R77">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <f t="shared" si="52"/>
@@ -33239,22 +33258,19 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2017</v>
-      </c>
-      <c r="B78" s="1">
-        <v>42826</v>
+        <v>2018</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>416</v>
+        <v>114</v>
       </c>
       <c r="D78" t="s">
-        <v>417</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
-      </c>
-      <c r="F78" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="G78">
         <f t="shared" si="40"/>
@@ -33266,7 +33282,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <f t="shared" si="43"/>
@@ -33286,7 +33302,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <f t="shared" si="48"/>
@@ -33294,7 +33310,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <f t="shared" si="50"/>
@@ -33306,7 +33322,7 @@
       </c>
       <c r="S78">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78">
         <f t="shared" si="53"/>
@@ -33322,27 +33338,27 @@
       </c>
       <c r="W78">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B79" s="1">
-        <v>42948</v>
+        <v>43101</v>
       </c>
       <c r="C79" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="G79">
         <f t="shared" si="40"/>
@@ -33415,19 +33431,19 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2016</v>
-      </c>
-      <c r="B80">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G80">
         <f t="shared" si="40"/>
@@ -33500,19 +33516,22 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2016</v>
-      </c>
-      <c r="B81">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="B81" s="1">
+        <v>42826</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>413</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>207</v>
+      </c>
+      <c r="F81" t="s">
+        <v>415</v>
       </c>
       <c r="G81">
         <f t="shared" ref="G81:G98" si="57">IF(AND(
@@ -33533,7 +33552,7 @@
   OR(ISNUMBER(FIND($I$1 &amp; ";", E81 &amp; ";")), ISNUMBER(FIND($I$1 &amp; " ", E81 &amp; " "))),
   AND(ISERROR(FIND($I$1 &amp; "_EX;", E81 &amp; ";")), ISERROR(FIND($I$1 &amp; "_EX ", E81 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <f t="shared" ref="J81:J98" si="60">IF(AND(
@@ -33582,7 +33601,7 @@
   OR(ISNUMBER(FIND($P$1 &amp; ";", E81 &amp; ";")), ISNUMBER(FIND($P$1 &amp; " ", E81 &amp; " "))),
   AND(ISERROR(FIND($P$1 &amp; "_EX;", E81 &amp; ";")), ISERROR(FIND($P$1 &amp; "_EX ", E81 &amp; " ")))
 ), 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
         <f t="shared" ref="Q81:Q98" si="67">IF(AND(
@@ -33636,19 +33655,22 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2016</v>
-      </c>
-      <c r="B82" t="s">
-        <v>423</v>
+        <v>2017</v>
+      </c>
+      <c r="B82" s="1">
+        <v>42948</v>
       </c>
       <c r="C82" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E82" t="s">
-        <v>426</v>
+        <v>439</v>
+      </c>
+      <c r="F82" t="s">
+        <v>418</v>
       </c>
       <c r="G82">
         <f t="shared" si="57"/>
@@ -33656,11 +33678,11 @@
       </c>
       <c r="H82">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <f t="shared" si="60"/>
@@ -33723,20 +33745,17 @@
       <c r="A83">
         <v>2016</v>
       </c>
-      <c r="B83" t="s">
-        <v>423</v>
+      <c r="B83">
+        <v>2016</v>
       </c>
       <c r="C83" t="s">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>428</v>
+        <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>421</v>
-      </c>
-      <c r="F83" t="s">
-        <v>429</v>
+        <v>42</v>
       </c>
       <c r="G83">
         <f t="shared" si="57"/>
@@ -33744,7 +33763,7 @@
       </c>
       <c r="H83">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <f t="shared" si="59"/>
@@ -33776,7 +33795,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <f t="shared" si="67"/>
@@ -33809,19 +33828,19 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B84">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="G84">
         <f t="shared" si="57"/>
@@ -33894,22 +33913,19 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2015</v>
-      </c>
-      <c r="B85" s="1">
-        <v>42186</v>
+        <v>2016</v>
+      </c>
+      <c r="B85" t="s">
+        <v>419</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>420</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>421</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
-      </c>
-      <c r="F85" t="s">
-        <v>226</v>
+        <v>440</v>
       </c>
       <c r="G85">
         <f t="shared" si="57"/>
@@ -33921,7 +33937,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <f t="shared" si="60"/>
@@ -33949,7 +33965,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <f t="shared" si="67"/>
@@ -33982,19 +33998,22 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>419</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>423</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>439</v>
+      </c>
+      <c r="F86" t="s">
+        <v>441</v>
       </c>
       <c r="G86">
         <f t="shared" si="57"/>
@@ -34002,7 +34021,7 @@
       </c>
       <c r="H86">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <f t="shared" si="59"/>
@@ -34034,7 +34053,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <f t="shared" si="67"/>
@@ -34067,19 +34086,19 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2014</v>
-      </c>
-      <c r="B87" t="s">
-        <v>110</v>
+        <v>2015</v>
+      </c>
+      <c r="B87">
+        <v>2015</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G87">
         <f t="shared" si="57"/>
@@ -34152,19 +34171,22 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2014</v>
-      </c>
-      <c r="B88">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42186</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>225</v>
+      </c>
+      <c r="F88" t="s">
+        <v>226</v>
       </c>
       <c r="G88">
         <f t="shared" si="57"/>
@@ -34240,16 +34262,16 @@
         <v>2014</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="G89">
         <f t="shared" si="57"/>
@@ -34257,7 +34279,7 @@
       </c>
       <c r="H89">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <f t="shared" si="59"/>
@@ -34297,7 +34319,7 @@
       </c>
       <c r="R89">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89">
         <f t="shared" si="69"/>
@@ -34325,19 +34347,16 @@
         <v>2014</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
-        <v>357</v>
-      </c>
-      <c r="F90" t="s">
-        <v>379</v>
+        <v>70</v>
       </c>
       <c r="G90">
         <f t="shared" si="57"/>
@@ -34377,7 +34396,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <f t="shared" si="67"/>
@@ -34410,19 +34429,19 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B91">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G91">
         <f t="shared" si="57"/>
@@ -34434,7 +34453,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <f t="shared" si="60"/>
@@ -34450,7 +34469,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <f t="shared" si="64"/>
@@ -34458,11 +34477,11 @@
       </c>
       <c r="O91">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
         <f t="shared" si="67"/>
@@ -34495,19 +34514,19 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2012</v>
-      </c>
-      <c r="B92">
-        <v>2012</v>
+        <v>2014</v>
+      </c>
+      <c r="B92" t="s">
+        <v>234</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="G92">
         <f t="shared" si="57"/>
@@ -34515,7 +34534,7 @@
       </c>
       <c r="H92">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <f t="shared" si="59"/>
@@ -34555,7 +34574,7 @@
       </c>
       <c r="R92">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92">
         <f t="shared" si="69"/>
@@ -34580,22 +34599,22 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F93" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G93">
         <f t="shared" si="57"/>
@@ -34603,7 +34622,7 @@
       </c>
       <c r="H93">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <f t="shared" si="59"/>
@@ -34623,7 +34642,7 @@
       </c>
       <c r="M93">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <f t="shared" si="64"/>
@@ -34668,19 +34687,19 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B94">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G94">
         <f t="shared" si="57"/>
@@ -34692,7 +34711,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <f t="shared" si="60"/>
@@ -34708,7 +34727,7 @@
       </c>
       <c r="M94">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <f t="shared" si="64"/>
@@ -34716,11 +34735,11 @@
       </c>
       <c r="O94">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
         <f t="shared" si="67"/>
@@ -34753,22 +34772,19 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2011</v>
-      </c>
-      <c r="B95" t="s">
-        <v>189</v>
+        <v>2012</v>
+      </c>
+      <c r="B95">
+        <v>2012</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="E95" t="s">
-        <v>353</v>
-      </c>
-      <c r="F95" t="s">
-        <v>374</v>
+        <v>143</v>
       </c>
       <c r="G95">
         <f t="shared" si="57"/>
@@ -34796,7 +34812,7 @@
       </c>
       <c r="M95">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <f t="shared" si="64"/>
@@ -34808,7 +34824,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
         <f t="shared" si="67"/>
@@ -34841,19 +34857,22 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2010</v>
-      </c>
-      <c r="B96">
-        <v>2010</v>
+        <v>2012</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D96" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
+        <v>354</v>
+      </c>
+      <c r="F96" t="s">
+        <v>374</v>
       </c>
       <c r="G96">
         <f t="shared" si="57"/>
@@ -34861,7 +34880,7 @@
       </c>
       <c r="H96">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <f t="shared" si="59"/>
@@ -34881,7 +34900,7 @@
       </c>
       <c r="M96">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
         <f t="shared" si="64"/>
@@ -34893,7 +34912,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
         <f t="shared" si="67"/>
@@ -34926,19 +34945,19 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="B97">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <f t="shared" si="57"/>
@@ -34946,7 +34965,7 @@
       </c>
       <c r="H97">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <f t="shared" si="59"/>
@@ -34978,7 +34997,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
         <f t="shared" si="67"/>
@@ -35011,19 +35030,22 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1996</v>
-      </c>
-      <c r="B98">
-        <v>1996</v>
+        <v>2011</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>353</v>
+      </c>
+      <c r="F98" t="s">
+        <v>373</v>
       </c>
       <c r="G98">
         <f t="shared" si="57"/>
@@ -35063,7 +35085,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
         <f t="shared" si="67"/>
@@ -35071,7 +35093,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98">
         <f t="shared" si="69"/>
@@ -35095,113 +35117,435 @@
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2010</v>
+      </c>
+      <c r="B99">
+        <v>2010</v>
+      </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>186</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99:G101" si="74">IF(AND(
+  OR(ISNUMBER(FIND($G$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($G$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($G$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($G$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ref="H99:H101" si="75">IF(AND(
+  OR(ISNUMBER(FIND($H$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($H$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($H$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($H$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ref="I99:I101" si="76">IF(AND(
+  OR(ISNUMBER(FIND($I$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($I$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($I$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($I$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ref="J99:J101" si="77">IF(AND(
+  OR(ISNUMBER(FIND($J$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($J$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($J$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($J$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ref="K99:K101" si="78">IF(AND(
+  OR(ISNUMBER(FIND($K$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($K$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($K$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($K$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f t="shared" ref="L99:L101" si="79">IF(AND(
+  OR(ISNUMBER(FIND($L$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($L$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($L$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($L$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ref="M99:M101" si="80">IF(AND(
+  OR(ISNUMBER(FIND($M$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($M$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($M$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($M$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ref="N99:N101" si="81">IF(AND(
+  OR(ISNUMBER(FIND($N$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($N$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($N$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($N$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <f t="shared" ref="O99:O101" si="82">IF(AND(
+  OR(ISNUMBER(FIND($O$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($O$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($O$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($O$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ref="P99:P101" si="83">IF(AND(
+  OR(ISNUMBER(FIND($P$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($P$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($P$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($P$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ref="Q99:Q101" si="84">IF(AND(
+  OR(ISNUMBER(FIND($H$1 &amp; ";", N99 &amp; ";")), ISNUMBER(FIND($H$1 &amp; " ", N99 &amp; " "))),
+  AND(ISERROR(FIND($H$1 &amp; "_EX;", N99 &amp; ";")), ISERROR(FIND($H$1 &amp; "_EX ", N99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <f t="shared" ref="R99:R101" si="85">IF(AND(
+  OR(ISNUMBER(FIND($R$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($R$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($R$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($R$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f t="shared" ref="S99:S101" si="86">IF(AND(
+  OR(ISNUMBER(FIND($S$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($S$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($S$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($S$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <f t="shared" ref="T99:T101" si="87">IF(AND(
+  OR(ISNUMBER(FIND($T$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($T$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($T$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($T$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <f t="shared" ref="U99:U101" si="88">IF(AND(
+  OR(ISNUMBER(FIND($U$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($U$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($U$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($U$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <f t="shared" ref="V99:V101" si="89">IF(AND(
+  OR(ISNUMBER(FIND($V$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($V$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($V$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($V$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <f t="shared" ref="W99:W101" si="90">IF(AND(
+  OR(ISNUMBER(FIND($W$1 &amp; ";", E99 &amp; ";")), ISNUMBER(FIND($W$1 &amp; " ", E99 &amp; " "))),
+  AND(ISERROR(FIND($W$1 &amp; "_EX;", E99 &amp; ";")), ISERROR(FIND($W$1 &amp; "_EX ", E99 &amp; " ")))
+), 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2008</v>
+      </c>
+      <c r="B100">
+        <v>2008</v>
+      </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="90"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1996</v>
+      </c>
+      <c r="B101">
+        <v>1996</v>
+      </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>192</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="90"/>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
       <c r="D104" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="E106" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="E107" t="s">
-        <v>360</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>430</v>
+        <v>180</v>
+      </c>
+      <c r="E108" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>431</v>
+        <v>182</v>
+      </c>
+      <c r="E109" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>432</v>
-      </c>
       <c r="D110" t="s">
-        <v>433</v>
+        <v>322</v>
+      </c>
+      <c r="E110" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>434</v>
-      </c>
       <c r="D111" t="s">
-        <v>435</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>428</v>
+      </c>
+      <c r="D114" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>428</v>
+      </c>
+      <c r="D115" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D116" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/SSM_Perception_scratch.xlsx
+++ b/SSM_Perception_scratch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d3engineering-my.sharepoint.com/personal/oadamides_d3embedded_com/Documents/Documents/PhD/2023-2024/SSM_Survey_Paper/survey_SSM_robotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E473A9-BF6A-4518-B1CA-BCEB5499AA29}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542530CC-41E8-4009-8AF8-0318D304150E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1181">
   <si>
     <t>Publication Year</t>
   </si>
@@ -3575,6 +3575,9 @@
   </si>
   <si>
     <t>USE_IN_TABLE</t>
+  </si>
+  <si>
+    <t>LiDAR_EX; Indoor navigation; Blind and visually impaired; deep reinforcement learning; Guiding Robot; navigation; UWB Beacon; Verbal instruction; RADAR_EX; 3DTOF_EX; EMBEDDEDLIN_EX; NVIDIACOMPUTE_EX; INTELCOMPUTE_EX</t>
   </si>
 </sst>
 </file>
@@ -4481,7 +4484,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -4631,7 +4634,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -5385,7 +5388,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -6146,7 +6149,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -6452,7 +6455,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -6605,7 +6608,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -7397,7 +7400,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -7547,7 +7550,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -8301,7 +8304,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -9405,7 +9408,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -9711,7 +9714,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -9864,7 +9867,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -10506,7 +10509,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -10958,7 +10961,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -11410,7 +11413,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
@@ -12049,7 +12052,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -12199,7 +12202,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -12953,7 +12956,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -13410,7 +13413,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -13716,7 +13719,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -13869,7 +13872,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -15461,7 +15464,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21886,8 +21889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825518CA-F60F-4DC4-87D6-FEDC2F6AE5B4}">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY11" sqref="AY11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22175,11 +22178,11 @@
       </c>
       <c r="Z2">
         <f>SUM(H2:H101)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA2">
         <f>SUM(I2:I101)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2">
         <f>SUM(J2:J101)</f>
@@ -22199,7 +22202,7 @@
       </c>
       <c r="AF2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2">
         <f t="shared" si="1"/>
@@ -22219,7 +22222,7 @@
       </c>
       <c r="AK2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL2">
         <f t="shared" si="1"/>
@@ -22227,11 +22230,11 @@
       </c>
       <c r="AM2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO2">
         <f t="shared" si="1"/>
@@ -24787,11 +24790,11 @@
       </c>
       <c r="Z17">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB17">
         <f t="shared" si="22"/>
@@ -24811,7 +24814,7 @@
       </c>
       <c r="AF17">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG17">
         <f t="shared" si="27"/>
@@ -24831,7 +24834,7 @@
       </c>
       <c r="AK17">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <f t="shared" si="32"/>
@@ -24839,11 +24842,11 @@
       </c>
       <c r="AM17">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <f t="shared" si="35"/>
@@ -24858,7 +24861,7 @@
       </c>
       <c r="AR17">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS17">
         <f t="shared" si="38"/>
@@ -24866,7 +24869,7 @@
       </c>
       <c r="AT17">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
@@ -26871,7 +26874,7 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>1180</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
@@ -26879,11 +26882,11 @@
       </c>
       <c r="H38">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
@@ -26903,7 +26906,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <f t="shared" si="10"/>
@@ -26923,7 +26926,7 @@
       </c>
       <c r="S38">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <f t="shared" si="15"/>
@@ -26931,11 +26934,11 @@
       </c>
       <c r="U38">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <f t="shared" si="18"/>

--- a/SSM_Perception_scratch.xlsx
+++ b/SSM_Perception_scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d3engineering-my.sharepoint.com/personal/oadamides_d3embedded_com/Documents/Documents/PhD/2023-2024/SSM_Survey_Paper/survey_SSM_robotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542530CC-41E8-4009-8AF8-0318D304150E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82BA398E-D2BF-45D7-9F74-BB627F56F80B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1183">
   <si>
     <t>Publication Year</t>
   </si>
@@ -3578,6 +3578,12 @@
   </si>
   <si>
     <t>LiDAR_EX; Indoor navigation; Blind and visually impaired; deep reinforcement learning; Guiding Robot; navigation; UWB Beacon; Verbal instruction; RADAR_EX; 3DTOF_EX; EMBEDDEDLIN_EX; NVIDIACOMPUTE_EX; INTELCOMPUTE_EX</t>
+  </si>
+  <si>
+    <t>Dynamic SSM; Simulation Only</t>
+  </si>
+  <si>
+    <t>Force and tactile sensing; gesture; posture and facial expressions; sensor-based control; PC; IR; BAREMETAL</t>
   </si>
 </sst>
 </file>
@@ -4325,7 +4331,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -4478,7 +4484,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -5686,7 +5692,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -7241,7 +7247,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -7394,7 +7400,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -8945,7 +8951,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -11404,10 +11410,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
@@ -11893,7 +11899,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -12046,7 +12052,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -14171,7 +14177,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -14707,7 +14713,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -21889,8 +21895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825518CA-F60F-4DC4-87D6-FEDC2F6AE5B4}">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22174,11 +22180,11 @@
       </c>
       <c r="Y2">
         <f>SUM(G2:G101)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2">
         <f>SUM(H2:H101)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA2">
         <f>SUM(I2:I101)</f>
@@ -22210,7 +22216,7 @@
       </c>
       <c r="AH2">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI2">
         <f t="shared" si="1"/>
@@ -24261,7 +24267,7 @@
       </c>
       <c r="Y14">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <f t="shared" si="20"/>
@@ -24336,7 +24342,7 @@
       </c>
       <c r="AR14">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS14">
         <f t="shared" si="38"/>
@@ -24440,7 +24446,7 @@
       </c>
       <c r="Z15">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA15">
         <f t="shared" si="21"/>
@@ -24472,7 +24478,7 @@
       </c>
       <c r="AH15">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI15">
         <f t="shared" si="29"/>
@@ -24511,11 +24517,11 @@
       </c>
       <c r="AR15">
         <f t="shared" si="37"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS15">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT15">
         <f t="shared" si="39"/>
@@ -29184,7 +29190,7 @@
         <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>1181</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
@@ -29192,7 +29198,7 @@
       </c>
       <c r="H65">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
@@ -29224,7 +29230,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <f t="shared" si="12"/>
@@ -30167,11 +30173,11 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>1182</v>
       </c>
       <c r="G76">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <f t="shared" si="41"/>

--- a/SSM_Perception_scratch.xlsx
+++ b/SSM_Perception_scratch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d3engineering-my.sharepoint.com/personal/oadamides_d3embedded_com/Documents/Documents/PhD/2023-2024/SSM_Survey_Paper/survey_SSM_robotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82BA398E-D2BF-45D7-9F74-BB627F56F80B}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{803CF3A9-0E1F-1E4F-9602-AE187D508B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8A73899-277F-406A-92B0-F050D65543BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
+    <workbookView xWindow="38280" yWindow="-8235" windowWidth="38640" windowHeight="21240" xr2:uid="{69BFFA8D-C89D-4F6E-A34D-B0212540F3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataProcessing" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1186">
   <si>
     <t>Publication Year</t>
   </si>
@@ -3584,6 +3584,15 @@
   </si>
   <si>
     <t>Force and tactile sensing; gesture; posture and facial expressions; sensor-based control; PC; IR; BAREMETAL</t>
+  </si>
+  <si>
+    <t>LiDAR_EX; 3DTOF_EX; MONOVISION_EX; STEREOVISION_EX; PC_EX; sensor performance metrics</t>
+  </si>
+  <si>
+    <t>THERMAL; 3DTOF; PC; Kinect</t>
+  </si>
+  <si>
+    <t>Stereo vision; STEREOVISION_EX; PC_EX</t>
   </si>
 </sst>
 </file>
@@ -4490,10 +4499,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -4640,7 +4649,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -5090,7 +5099,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -5242,13 +5251,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -5698,13 +5707,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -7406,10 +7415,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -7556,7 +7565,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -8006,7 +8015,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -8158,13 +8167,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -8957,13 +8966,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -10515,7 +10524,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -11269,13 +11278,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -11419,10 +11428,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
@@ -12058,10 +12067,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -12208,7 +12217,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -12658,7 +12667,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -12810,13 +12819,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -14183,13 +14192,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -15090,7 +15099,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -15467,7 +15476,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -21895,8 +21904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825518CA-F60F-4DC4-87D6-FEDC2F6AE5B4}">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22188,7 +22197,7 @@
       </c>
       <c r="AA2">
         <f>SUM(I2:I101)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB2">
         <f>SUM(J2:J101)</f>
@@ -22200,11 +22209,11 @@
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AO2" si="1">SUM(L2:L101)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF2">
         <f t="shared" si="1"/>
@@ -22216,7 +22225,7 @@
       </c>
       <c r="AH2">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI2">
         <f t="shared" si="1"/>
@@ -23495,7 +23504,7 @@
         <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>1185</v>
       </c>
       <c r="F10" t="s">
         <v>199</v>
@@ -23526,7 +23535,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="9"/>
@@ -23538,7 +23547,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <f t="shared" si="12"/>
@@ -24796,11 +24805,11 @@
       </c>
       <c r="Z17">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB17">
         <f t="shared" si="22"/>
@@ -24812,11 +24821,11 @@
       </c>
       <c r="AD17">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <f t="shared" si="26"/>
@@ -24828,7 +24837,7 @@
       </c>
       <c r="AH17">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI17">
         <f t="shared" si="29"/>
@@ -24863,15 +24872,15 @@
       </c>
       <c r="AQ17">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR17">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT17">
         <f t="shared" si="39"/>
@@ -24971,7 +24980,7 @@
       </c>
       <c r="Z18">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA18">
         <f t="shared" si="21"/>
@@ -24991,7 +25000,7 @@
       </c>
       <c r="AE18">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF18">
         <f t="shared" si="26"/>
@@ -25038,11 +25047,11 @@
       </c>
       <c r="AQ18">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <f t="shared" si="37"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18">
         <f t="shared" si="38"/>
@@ -25166,7 +25175,7 @@
       </c>
       <c r="AE19">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF19">
         <f t="shared" si="26"/>
@@ -25178,7 +25187,7 @@
       </c>
       <c r="AH19">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19">
         <f t="shared" si="29"/>
@@ -25213,7 +25222,7 @@
       </c>
       <c r="AQ19">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19">
         <f t="shared" si="37"/>
@@ -25221,7 +25230,7 @@
       </c>
       <c r="AS19">
         <f t="shared" si="38"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT19">
         <f t="shared" si="39"/>
@@ -26622,7 +26631,7 @@
         <v>333</v>
       </c>
       <c r="E35" t="s">
-        <v>368</v>
+        <v>1184</v>
       </c>
       <c r="F35" t="s">
         <v>389</v>
@@ -26633,7 +26642,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
@@ -26653,7 +26662,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <f t="shared" si="9"/>
@@ -27475,7 +27484,7 @@
         <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>1183</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
@@ -27483,11 +27492,11 @@
       </c>
       <c r="H45">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <f t="shared" si="5"/>
@@ -27499,11 +27508,11 @@
       </c>
       <c r="L45">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <f t="shared" si="9"/>
@@ -27515,7 +27524,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <f t="shared" si="12"/>
